--- a/lp_tenant_exporter_v2/split/tenants/moi_config.xlsx
+++ b/lp_tenant_exporter_v2/split/tenants/moi_config.xlsx
@@ -17,14 +17,16 @@
     <sheet name="Device" sheetId="8" r:id="rId8"/>
     <sheet name="DeviceFetcher" sheetId="9" r:id="rId9"/>
     <sheet name="DeviceGroups" sheetId="10" r:id="rId10"/>
-    <sheet name="Alert" sheetId="11" r:id="rId11"/>
+    <sheet name="User" sheetId="11" r:id="rId11"/>
+    <sheet name="UserGroup" sheetId="12" r:id="rId12"/>
+    <sheet name="Alert" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="674">
   <si>
     <t>repo_number</t>
   </si>
@@ -959,150 +961,285 @@
     <t>65d714a3bc253dd6610452a3 | 65d7121229b9e83bc200591c</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>usergroup_id</t>
+  </si>
+  <si>
+    <t>preferences</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f74</t>
+  </si>
+  <si>
+    <t>64ff36a25aaee58760df2766</t>
+  </si>
+  <si>
+    <t>650c151dfcc3084c80c082e5</t>
+  </si>
+  <si>
+    <t>65afefd2b079f715b02651c9</t>
+  </si>
+  <si>
+    <t>65bbc347d4f35cfb51a072ae</t>
+  </si>
+  <si>
+    <t>65bbc37bd4f35cfb51a072b4</t>
+  </si>
+  <si>
+    <t>Operator1</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>pentest</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Admin-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>ldap_CN=SIEM-Eng-User,OU=RoleUsers,OU=Users,OU=CORE,DC=csoc,DC=esa,DC=int</t>
+  </si>
+  <si>
+    <t>Admin Admin</t>
+  </si>
+  <si>
+    <t>Operator One</t>
+  </si>
+  <si>
+    <t>SC3 SC3</t>
+  </si>
+  <si>
+    <t>Tester PEN</t>
+  </si>
+  <si>
+    <t>SIEM-Admin-User</t>
+  </si>
+  <si>
+    <t>SIEM-Eng-User</t>
+  </si>
+  <si>
+    <t>op.one@logpoint.ld</t>
+  </si>
+  <si>
+    <t>sc3@logpoint.com</t>
+  </si>
+  <si>
+    <t>pentest@logpoint.local</t>
+  </si>
+  <si>
+    <t>['62dcbda0eea1924ff18d9f6f']</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "settings_help": true, "result_limit": 25, "shouldPrecompute": true, "search_histogram_hidden": false, "interesting_fields_disabled": false, "growl_position": "br"}</t>
+  </si>
+  <si>
+    <t>{"search_help_popup": false, "hour_format": "24 Hour", "date_format": "%Y/%m/%d", "ui_theme": "default", "growl_position": "br", "shouldPrecompute": true, "result_limit": 25, "search_histogram_hidden": false, "settings_help": null}</t>
+  </si>
+  <si>
+    <t>permission_group</t>
+  </si>
+  <si>
+    <t>object_permission</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f6f</t>
+  </si>
+  <si>
+    <t>62dcbda0eea1924ff18d9f70</t>
+  </si>
+  <si>
+    <t>64ff364914ffe837afabc91f</t>
+  </si>
+  <si>
+    <t>LogPoint Administrator</t>
+  </si>
+  <si>
+    <t>User Account Administrator</t>
+  </si>
+  <si>
+    <t>operator_group</t>
+  </si>
+  <si>
+    <t>This user group is highly privileged user group.
+                          The users within this group has access to the
+                          most restricted system related areas-
+                          System Settings, LogPoint License, Software Updates,
+                          Security Updates, Application Installation and
+                          Backup/Restore.</t>
+  </si>
+  <si>
+    <t>The user group has all permissions except the system
+           related permissions that the LogPoint Administrators group has.</t>
+  </si>
+  <si>
+    <t>"admin"</t>
+  </si>
+  <si>
+    <t>"operator"</t>
+  </si>
+  <si>
+    <t>{"allowed_all": true, "permitted": []}</t>
+  </si>
+  <si>
+    <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
+  </si>
+  <si>
+    <t>settings.user</t>
+  </si>
+  <si>
+    <t>settings.assigned_to</t>
+  </si>
+  <si>
+    <t>settings.visible_to_users</t>
+  </si>
+  <si>
+    <t>settings.visible_to</t>
+  </si>
+  <si>
     <t>alert_index</t>
   </si>
   <si>
+    <t>settings.vid</t>
+  </si>
+  <si>
+    <t>settings.used_from</t>
+  </si>
+  <si>
     <t>settings.active</t>
   </si>
   <si>
+    <t>settings.flush_on_trigger</t>
+  </si>
+  <si>
     <t>settings.description</t>
   </si>
   <si>
+    <t>settings.data_privacy_request</t>
+  </si>
+  <si>
     <t>settings.time_range_seconds</t>
   </si>
   <si>
+    <t>settings.version</t>
+  </si>
+  <si>
+    <t>settings.tid</t>
+  </si>
+  <si>
     <t>settings.extra_config.query</t>
   </si>
   <si>
+    <t>settings.risk</t>
+  </si>
+  <si>
+    <t>settings.aggregate</t>
+  </si>
+  <si>
+    <t>settings.condition.condition_option</t>
+  </si>
+  <si>
+    <t>settings.condition.condition_value</t>
+  </si>
+  <si>
+    <t>settings.name</t>
+  </si>
+  <si>
+    <t>settings.notifications</t>
+  </si>
+  <si>
+    <t>settings.alertrule_id</t>
+  </si>
+  <si>
+    <t>settings.attack_tag</t>
+  </si>
+  <si>
+    <t>settings.log_source</t>
+  </si>
+  <si>
+    <t>settings.metadata</t>
+  </si>
+  <si>
+    <t>settings.is_context_template_enabled</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.vid</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.flush_on_trigger</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.extra_query_filter</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.generated_by</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.tid</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.description</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_hour</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_second</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.searchname</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.fieldsToExtract</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.success</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.query_type</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.query_filter</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.lucene_query</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.aliases</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.columns</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.query_info.grouping</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_day</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.timerange_minute</t>
+  </si>
+  <si>
+    <t>settings.livesearch_data.limit</t>
+  </si>
+  <si>
     <t>settings.repos</t>
   </si>
   <si>
-    <t>settings.vid</t>
-  </si>
-  <si>
-    <t>settings.used_from</t>
-  </si>
-  <si>
-    <t>settings.visible_to</t>
-  </si>
-  <si>
-    <t>settings.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.data_privacy_request</t>
-  </si>
-  <si>
-    <t>settings.version</t>
-  </si>
-  <si>
-    <t>settings.tid</t>
-  </si>
-  <si>
-    <t>settings.risk</t>
-  </si>
-  <si>
-    <t>settings.visible_to_users</t>
-  </si>
-  <si>
-    <t>settings.user</t>
-  </si>
-  <si>
-    <t>settings.aggregate</t>
-  </si>
-  <si>
-    <t>settings.condition.condition_option</t>
-  </si>
-  <si>
-    <t>settings.condition.condition_value</t>
-  </si>
-  <si>
-    <t>settings.name</t>
-  </si>
-  <si>
-    <t>settings.assigned_to</t>
-  </si>
-  <si>
-    <t>settings.notifications</t>
-  </si>
-  <si>
-    <t>settings.alertrule_id</t>
-  </si>
-  <si>
-    <t>settings.attack_tag</t>
-  </si>
-  <si>
-    <t>settings.log_source</t>
-  </si>
-  <si>
-    <t>settings.metadata</t>
-  </si>
-  <si>
-    <t>settings.is_context_template_enabled</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.vid</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.flush_on_trigger</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.extra_query_filter</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.generated_by</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.tid</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.description</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_hour</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_second</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.searchname</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.fieldsToExtract</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.success</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.query_type</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.query_filter</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.lucene_query</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.aliases</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.columns</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.query_info.grouping</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_day</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.timerange_minute</t>
-  </si>
-  <si>
-    <t>settings.livesearch_data.limit</t>
-  </si>
-  <si>
     <t>settings.throttling_enabled</t>
   </si>
   <si>
@@ -1206,6 +1343,48 @@
   </si>
   <si>
     <t>LOGPOINT - HEALTHCHECK - Logs AD manquants</t>
+  </si>
+  <si>
+    <t>etudes</t>
+  </si>
+  <si>
+    <t>securite</t>
+  </si>
+  <si>
+    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
+  </si>
+  <si>
+    <t>adfs_nguyen.vincent</t>
+  </si>
+  <si>
+    <t>adfs_lelevier.aurelien</t>
+  </si>
+  <si>
+    <t>5bf3e54d03a0f32ee1e1ebc7</t>
+  </si>
+  <si>
+    <t>5df8af7f03a0f351b1487c93</t>
+  </si>
+  <si>
+    <t>5a61fb4103a0f34af015fad6</t>
+  </si>
+  <si>
+    <t>5f50f6ccaabaf90062ab0049</t>
+  </si>
+  <si>
+    <t>637395a3def0bfd60151d472</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
+  </si>
+  <si>
+    <t>ALERT_735</t>
+  </si>
+  <si>
+    <t>ALERT_13</t>
   </si>
   <si>
     <t>Valeur limite : 90 000 Calculée par rapport aux valeurs moyennes constatées
@@ -1318,6 +1497,453 @@
     <t>device_name="SRVPDC0*" OR device_name="SCIPDC0*" | chart count() as DC by device_name</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>greaterthan</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>moreequal</t>
+  </si>
+  <si>
+    <t>notequal</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'INAVERCJIYQC2ICBINKESVSFEBCESUSFINKE6USZEAWSATKPIREUMSKDIFKEST2OEBDVET2VKBCSAVBR'.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&amp;nbsp;&lt;/font&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;cette alerte concerne Cardif-IARD,&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le groupe&amp;nbsp;&lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.group}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a été modifié par&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Modificateur}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;en réalisant l'action&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.action}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;sur l'utilisateur&amp;nbsp;&lt;b style=\"font-style: italic;\"&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur}}&lt;/font&gt;&lt;/b&gt;.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "CARDIF - ACTIVE DIRECTORY - MODIFICATION GROUPE T1", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICGJ5JFISKHIFKEKICWKBHCAU2TJQQC2ICFKJJEKVKSEBCEKICDJ5HE4RKYJFHU4==='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car une erreur d'authentification a été détectée sur Fortigate VPN SSL.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser les modifications en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - FORTIGATE VPN SSL - ERREUR DE CONNEXION", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAU2FKVEUYICCIFJSARCFEBBU6TSOIVMEST2OKMQE4VCMJUQEIRKQIFJVGRI='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le compte&amp;nbsp;&lt;/font&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.user}}&amp;nbsp;&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;a dépassé la valeur limite de connexions NTLM journalières.&lt;/span&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - SEUIL BAS DE CONNEXIONS NTLM DEPASSE", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JRHUOUCPJFHFIIBNEBAUITKJJZEVGVCSIFKEST2OEAWSAQ2PJRGEKQ2UIVKVEIBQGMQEQUY='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 03 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'K5AUMICGGUQC2ICBIRGUSTSJKNKFEQKUJFHU4IBNEBBUKUSUJFDESQ2BKQQEKWCQJFJEK==='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&amp;nbsp;Le certificat&amp;nbsp; {{row.certificate}} a expiré&lt;/font&gt;&lt;/div&gt;&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% endfor%}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous\r\npouvez visualiser l’évènement&amp;nbsp;en cliquant sur le lien \"Search\r\nLink\" ci-dessous.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" style=\"\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] WAF F5 - ADMINISTRATION - CERTIFICAT EXPIRE", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
+  </si>
+  <si>
+    <t>[{"template_file": "alert_5f50f6ccaabaf90062ab0049_b'JRIF6RDFMZQXK3DUEBEGSZ3IEB2W42LROVSSAU2NKRICAVDSMFTGM2LD'.tmp", "type": "email", "notify_email": false, "email_emails": [], "email_template": "&lt;style type=\"text/css\"&gt;\n    .alert-table{\n        border: 1px solid #eee;\n        margin: 0px;\n        padding: 0px;       \n    }\n    .alert-table-th{\n        text-align: left;\n        border-bottom: 2px solid #eee;\n        padding: 5px;\n        color: #ffffff;\n        background-color: #646883;\n        font-family: helvetica;\n        font-size: 16px;\n    }\n    .alert-table-td{\n        border-left: 1px solid #eee;\n        text-align: left;\n        border-bottom: 1px solid #eee;\n        padding: 5px;\n        font-family: helvetica;\n        font-size: 15px;\n    }\n    .even{\n        background:#f6f6f8;\n    }\n\n    .odd{\n        background:#ffffff;\n    }\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n    &lt;tbody&gt;&lt;tr&gt;\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;SOURCE ADDRESS&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\n\n    &lt;/tr&gt;\n\n    &lt;tr&gt;\n        &lt;td colspan=\"6\"&gt;\n            {% for row in rows %}\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.source_address}}&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.Event}}&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Impact,Exfiltration,Command And Control&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1498,T1041,T1071&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Network Denial of Service,Exfiltration Over C2 Channel,Application Layer Protocol,Commonly Used Port&lt;/td&gt;\n\n                &lt;/tr&gt;\n            &lt;/tbody&gt;&lt;/table&gt;\n            {% endfor %}\n        &lt;/td&gt;\n    &lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "threshold": {}, "subject": "LP_Default High unique SMTP Traffic"}, {"type": "syslog", "notify_syslog": true, "server": "127.0.0.1", "port": 514, "severity": 1, "facility": 14, "threshold_value": null, "threshold_option": null, "protocol": "TCP", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_count: {{row.Event}}; incident_address: {{row.source_address}}; attack_category: Impact,Exfiltration,Command And Control; attack_tag: Network Denial of Service,Exfiltration Over C2 Channel,Application Layer Protocol,Commonly Used Port; attack_id: T1498,T1041,T1071,; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "split_rows": true}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T2.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car un groupe privilégié T2 a été modifié.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser les modifications en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "email_emails": [], "subject": "MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T2", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - SUPPRESSION DE LOGS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Bonjour,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Vous recevez ce mail car un ou plusieurs logs ont été effacés sur un contrôleur de domaine.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Vous pouvez visualiser l’événement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Cordialement,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "MATMUT - ACTIVE DIRECTORY - SUPPRESSION DE LOGS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_CARDIF - ACTIVE DIRECTORY - SUPPRESSION DE LOGS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Bonjour,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Vous recevez ce mail car un ou plusieurs logs ont été effacés sur un contrôleur de domaine.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Vous pouvez visualiser l’événement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Cordialement,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "CARDIF - ACTIVE DIRECTORY - SUPPRESSION DE LOGS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_LOGPOINT - ADMINISTRATION - COLLECTEUR 01 HS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 01 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "LOGPOINT - ADMINISTRATION - COLLECTEUR 01 HS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 03 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - SEUIL DE CONNEXIONS KERBEROS DEPASSE compte amelie poulain.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le compte poulain.amelie a dépassé sa valeur limite habituelle de connexions Kerberos journalières.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "threshold_option": null, "raw_emails": [], "type": "email", "subject": "MATMUT - ACTIVE DIRECTORY - SEUIL DE CONNEXIONS KERBEROS DEPASSE - COMPTE poulain.amelie", "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_WAF F5 - ADMINISTRATION - CERTIFICATE WILL EXPIRE.tmp", "notify_email": false, "email_emails": [], "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Le certificat&amp;nbsp;&lt;/font&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.CN}} &lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;va expirer le&amp;nbsp;&lt;/span&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.expire_ts}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;{% endfor%}&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement&amp;nbsp;en cliquant sur le lien \"Search Link\" ci-dessous.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "WAF F5 - ADMINISTRATION - CERTIFICATE WILL EXPIRE", "raw_emails": [], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICGJ5JFISKHIFKEKIBNEBKVISKMJFJUCVCJJ5HCARKYINCVGU2JKZCSARCFEBGECICCIFHEIRJAKBAVGU2BJZKEK==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;font face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;Vous recevez cette alerte car plus de 500Go de données ont été envoyé vers l'extérieur durant les 5 dernières minutes à destination des pays suivant :&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;{% for row in rows%}&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;ul&gt;&lt;li&gt;&lt;font face=\"arial\"&gt;{{row.destination_location}}&lt;/font&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - FORTIGATE - UTILISATION EXCESSIVE DE LA BANDE PASSANTE", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICDJ5GVAVCFEBAU2RKMJFCSAUCPKVGECSKOEBLEKUSSJ5KUSTCMIU======'.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr", "exploit-app-x86@matmut.fr"], "email_template": "&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Bonjour,&lt;/span&gt;&lt;/font&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;Vous recevez ce mail car le compte poulain.amelie a&amp;nbsp;été verrouillé&amp;nbsp;depuis\r\nle Hostname : &lt;/span&gt;&lt;font color=\"#3366ff\" style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;b&gt;&lt;i&gt;{{row.workstation}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;{%endfor%}&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Sur les 15 dernières minutes.&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Vous pouvez visualiser l'évènement en cliqaunt sur le lien \"Searche Link\" ci-dessous.&lt;/span&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Cordialement,&lt;/span&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;/span&gt;&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - COMPTE AMELIE POULAIN VERROUILLE", "raw_emails": ["ssi@matmut.fr", "exploit-app-x86@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIVMFATCJINEVIRJAIRCSAQ2SIVCEKTSUJFAUYICDJ5GVAVCFEBKDA==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Vous recevez ce mail car l'utilisateur &lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.Utilisateur_source}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a tenté de s’identifier en tant que &lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur_cible}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; de manière explicite.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Merci de vous assurer de la légitimité des actions effectuées.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - ACTIVE DIRECTORY - UTILISATION EXPLICIT DE CREDENTIAL COMPTE T0", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIVMFATCJINEVIRJAIRCSAQ2SIVCEKTSUJFAUYICDJ5GVAVCFEBKDE==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Vous recevez ce mail car l'utilisateur &lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.Utilisateur_source}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a tenté de s’identifier en tant que &lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur_cible}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; de manière explicite.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Merci de vous assurer de la légitimité des actions effectuées.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - ACTIVE DIRECTORY - UTILISATION EXPLICIT DE CREDENTIAL COMPTE T2", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIRKSAQ2PJVIFIRJAIFGUKTCJIUQFAT2VJRAUSTRAKBHVGVCFKMQESTCMIVDUSVCJJVCQ===='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Bonjour,&lt;/span&gt;&lt;/font&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;Vous recevez ce mail car le compte : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.dst_user}} &lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;a&amp;nbsp;été utilisé par &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;: {{row.src_user}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; depuis\r\nle Hostname : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.src_host}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; via l'adresse ip : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.src_adr}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; le : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.time}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&amp;nbsp; &lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;{%endfor%}&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Sur les 15 dernières minutes.&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Vous pouvez visualiser l'évènement en cliqaunt sur le lien \"Searche Link\" ci-dessous.&lt;/span&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Cordialement,&lt;/span&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - UTILISATION DU COMPTE AMELIE POULAIN POSTE ILLEGITIME", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAU2FKVEUYICCIFJSARCFEBBU6TSOIVMEST2OKMQEWRKSIJCVET2TEBCEKUCBKNJUK==='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" style=\"\"&gt;Vous recevez ce mail car le compte &lt;b style=\"\"&gt;&lt;i style=\"\"&gt;&lt;font color=\"#3366ff\"&gt;{{row.user}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; a dépassé la valeur limite de connexions Kerberos journalières.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - SEUIL BAS DE CONNEXIONS KERBEROS DEPASSE", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_message: {{row.message}}; attack_category: Discovery; attack_tag: Account Discovery,Local Account; attack_id: T1087,T1087.001; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "server": "127.0.0.1", "notify_syslog": true, "dispatch_option": "auto", "split_rows": true, "threshold_option": null, "type": "syslog", "port": 514}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICXNFXGI33XOMQFK43FOIQEY33DMFWCAR3SN52XAICFNZ2W2ZLSMF2GS33O'.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;GROUP&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;MESSAGE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.group}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.message}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1087,T1087.001&lt;/td&gt;\r\n\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;Account Discovery,Local Account&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "User Group Enumeration by Non-Administrator Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_integrity_level: {{row.integrity_level}}; incident_parent_command: {{row.parent_command}}; attack_category: Discovery; attack_tag: Account Discovery; attack_id: T1087; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "threshold_option": null, "type": "syslog", "split_rows": true}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICCNRXW6ZDIN52W4ZBAMFXGIICTNBQXE4DIN52W4ZBAJBQWG2ZAKRXW63BAIRSXIZLDORSWI==='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;APPLICATION&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HASH&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;INTEGRITY LEVEL&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;FILE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;PARENT COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.application}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.hash}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.integrity_level}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.file}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.parent_command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1087&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Account Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT Bloodhound and Sharphound Hack Tool Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_command_type: {{row.command_type}}; incident_payload: {{row.payload}}; attack_category: Discovery; attack_tag: File and Directory Discovery; attack_id: T1083; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "threshold_option": null, "type": "syslog", "split_rows": true}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICGNFWGKIDBNZSCARDJOJSWG5DPOJ4SARDJONRW65TFOJ4SAVLTNFXGOICQN53WK4STNBSWY3BAIRSXIZLDORSWI==='.tmp", "notify_email": true, "email_emails": ["cybersoc.matmut@matmut.fr", "cybersoc.gestion@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND TYPE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;PAYLOAD&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"11\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command_type}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.payload}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1083&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;File and Directory Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - File and Directory Discovery Using PowerShell Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "split_rows": true, "threshold_option": null, "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_process: {{row.process}}; attack_category: Discovery; attack_tag: File and Directory Discovery; attack_id: T1083; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}"}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICENFZWG33WMVZHSIDWNFQSARTJNRSSAYLOMQQEI2LSMVRXI33SPEQEI2LTMNXXMZLSPEQFK43JNZTSAQ3PNVWWC3TEEBIHE33NOB2A===='.tmp", "notify_email": true, "email_emails": ["cybersoc.matmut@matmut.fr", "cybsersoc.gestion@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;\"PROCESS\"&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.process}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1083&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;File and Directory Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - Discovery via File and Directory Discovery Using Command Prompt", "raw_emails": ["cybersoc.matmut@matmut.fr", "cybsersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JRHUOUCPJFHFIIBNEBEEKQKMKREEGSCFINFSALJAJRXWO4ZAIFCCA3LBNZYXKYLOORZQ===='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car les logs ne semblent pas remonter correctement depuis les 8 DC.&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Liste des DC actifs :&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" style=\"\" color=\"#0000ff\"&gt;&lt;b style=\"\"&gt;&lt;i style=\"\"&gt;&amp;nbsp;- {{row.device_name}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{%endfor%}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "LOGPOINT - HEALTHCHECK - Logs AD manquants", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
+  </si>
+  <si>
+    <t>0a6c370cbfc89fd80cefce1d70e02877</t>
+  </si>
+  <si>
+    <t>f3325c67289e7fb3347585b61bdecd95</t>
+  </si>
+  <si>
+    <t>62f94633a87fe7afb9675bd61ef3f80c</t>
+  </si>
+  <si>
+    <t>261ac29663d2ad3a8bbb6c4fad2384f6</t>
+  </si>
+  <si>
+    <t>92e9bcde9ff873fcd7ec050ec52d87cb</t>
+  </si>
+  <si>
+    <t>c4cebf33e5bc1962c74415d073ef2587</t>
+  </si>
+  <si>
+    <t>56518575f22a82f6bfbc273851ec43ba</t>
+  </si>
+  <si>
+    <t>c3a81f6cfaa072faab38a2b2f03d3272</t>
+  </si>
+  <si>
+    <t>b4dda06157164f4379aa2d9f635e8d6e</t>
+  </si>
+  <si>
+    <t>5b749a7a39818bc07e7e7fed450c6efd</t>
+  </si>
+  <si>
+    <t>b8fabcd7b4f9ca031a07885f6d0b7f34</t>
+  </si>
+  <si>
+    <t>8383ac20748f11594d0c0015a1f1c0c0</t>
+  </si>
+  <si>
+    <t>e46e7d05621f4796a18006674be527aa</t>
+  </si>
+  <si>
+    <t>0da0bf4d95f75db232cb39fa9160731e</t>
+  </si>
+  <si>
+    <t>e71c48b294876193993a58f10775d14b</t>
+  </si>
+  <si>
+    <t>89207e4d2dcdd536e7f912cb305e0c55</t>
+  </si>
+  <si>
+    <t>797de07cab9856a5683102fe8e80e585</t>
+  </si>
+  <si>
+    <t>777b25f4ad682eceb728fd971a41d347</t>
+  </si>
+  <si>
+    <t>931e53f56d39e56c4e9eeba0f40690bc</t>
+  </si>
+  <si>
+    <t>b5fd738b22237acb4ca26f0efcd31498</t>
+  </si>
+  <si>
+    <t>091f82899487e43dad73661aab2b4292</t>
+  </si>
+  <si>
+    <t>3e33bdb77c9b288fb9a755fec0b2f63f</t>
+  </si>
+  <si>
+    <t>5b34c332c8d6dab7631de0a89d5276d1</t>
+  </si>
+  <si>
+    <t>83973ab9215ea96b273db8a3cc6a0cbe</t>
+  </si>
+  <si>
+    <t>eb03d756b00415d71c70bb40a13b6e49</t>
+  </si>
+  <si>
+    <t>d3ecf5ed139d21bb74b4829b3910f089</t>
+  </si>
+  <si>
+    <t>["2728ba8c49a5d85369ac4c22b3ffc5d0", "e9fa82bfd7ffe66b4df98f97ddd7f08f"]</t>
+  </si>
+  <si>
+    <t>["2728ba8c49a5d85369ac4c22b3ffc5d0"]</t>
+  </si>
+  <si>
+    <t>["84b7464a40b328049acddfc84d1715d2"]</t>
+  </si>
+  <si>
+    <t>["Windows"]</t>
+  </si>
+  <si>
+    <t>["Windows Sysmon"]</t>
+  </si>
+  <si>
+    <t>(device_ip IN ['10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.235/32', '10.131.67.218/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.184.50/32', '10.241.64.98/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/32', '10.241.96.40/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/32', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32'] AND logpoint_name="LP_INDEX") OR (device_ip !=* AND logpoint_name="LP_SEARCH")</t>
+  </si>
+  <si>
+    <t>(device_ip IN ['10.131.64.14/32', '10.131.64.22/32', '10.131.64.26/32', '10.131.64.30/32', '10.131.64.44/32', '10.131.64.66/32', '10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.64.212/32', '10.131.65.13/32', '10.131.65.73/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.168/32', '10.131.65.189/32', '10.131.65.191/32', '10.131.65.196/32', '10.131.65.235/32', '10.131.66.93/32', '10.131.67.25/32', '10.131.67.142/31', '10.131.67.144/31', '10.131.67.151/32', '10.131.67.152/32', '10.131.67.218/31', '10.131.178.58/31', '10.131.182.18/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.182.93/32', '10.131.182.94/32', '10.131.184.30/32', '10.131.184.50/32', '10.131.184.57/32', '10.131.202.24/32', '10.131.202.32/32', '10.131.208.54/32', '10.131.208.62/31', '10.131.210.9/32', '10.131.210.10/31', '10.131.210.12/32', '10.195.0.19/32', '10.195.0.20/30', '10.195.0.24/32', '10.196.0.19/32', '10.196.0.20/30', '10.196.0.24/32', '10.201.10.10/32', '10.201.10.30/32', '10.201.10.39/32', '10.201.10.53/32', '10.201.10.54/32', '10.201.10.75/32', '10.201.10.81/32', '10.201.10.82/32', '10.204.10.2/31', '10.241.64.20/32', '10.241.64.98/31', '10.241.64.114/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/31', '10.241.96.40/32', '10.241.96.42/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.128.30/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.136.1/32', '10.241.136.2/31', '10.241.136.4/31', '10.241.136.6/32', '10.241.136.48/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.18/32', '10.241.160.22/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '126.12.102.134/31', '127.0.0.1/32', '192.168.2.6/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.60.4/31', '192.168.60.7/32', '192.168.60.8/32', '192.168.60.11/32', '192.168.60.12/32', '192.168.61.4/32', '192.168.61.6/31', '192.168.100.75/32', '192.168.100.76/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/31', '192.168.103.84/32', '192.168.103.110/31', '192.168.103.112/32', '192.168.103.136/31', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.31/32', '192.168.104.32/32', '192.168.104.61/32', '192.168.104.62/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.104.133/32', '192.168.104.134/32', '192.168.104.139/32', '192.168.104.140/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.105.146/31', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/30', '192.168.106.16/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.27/32', '192.168.168.28/32', '192.168.168.33/32', '192.168.168.34/32', '192.168.168.38/31', '192.168.168.105/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.120/31', '192.168.168.123/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.168.217/32', '192.168.168.218/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32', '::1/128'] AND logpoint_name="LP_INDEX") OR (device_ip IN ['127.0.0.1/32', '::1/128'] AND logpoint_name="LP_SEARCH")</t>
+  </si>
+  <si>
+    <t>(device_ip IN ["10.131.64.14/32", "10.131.64.22/32", "10.131.64.26/32", "10.131.64.30/32", "10.131.64.44/32", "10.131.64.66/32", "10.131.64.96/32", "10.131.64.126/32", "10.131.64.149/32", "10.131.64.151/32", "10.131.64.212/32", "10.131.65.13/32", "10.131.65.58/32", "10.131.65.73/32", "10.131.65.97/32", "10.131.65.167/32", "10.131.65.168/32", "10.131.65.189/32", "10.131.65.191/32", "10.131.65.196/32", "10.131.65.235/32", "10.131.66.93/32", "10.131.67.25/32", "10.131.67.142/31", "10.131.67.144/31", "10.131.67.151/32", "10.131.67.152/32", "10.131.67.218/31", "10.131.178.58/31", "10.131.182.18/31", "10.131.182.26/32", "10.131.182.65/32", "10.131.182.66/31", "10.131.182.68/31", "10.131.182.87/32", "10.131.182.88/32", "10.131.182.90/31", "10.131.182.93/32", "10.131.182.94/32", "10.131.184.30/32", "10.131.184.50/32", "10.131.184.55/32", "10.131.184.56/31", "10.131.202.24/32", "10.131.202.28/32", "10.131.202.32/32", "10.131.208.50/32", "10.131.208.54/32", "10.131.208.62/31", "10.131.210.9/32", "10.131.210.10/31", "10.131.210.12/32", "10.195.0.19/32", "10.195.0.20/30", "10.195.0.24/32", "10.196.0.19/32", "10.196.0.20/30", "10.196.0.24/32", "10.201.10.10/32", "10.201.10.30/32", "10.201.10.39/32", "10.201.10.53/32", "10.201.10.54/32", "10.201.10.75/32", "10.201.10.81/32", "10.201.10.82/32", "10.204.10.2/31", "10.241.64.20/32", "10.241.64.98/31", "10.241.64.114/31", "10.241.64.130/31", "10.241.64.210/31", "10.241.64.213/32", "10.241.64.214/32", "10.241.64.231/32", "10.241.64.232/31", "10.241.64.234/32", "10.241.88.2/31", "10.241.96.40/32", "10.241.96.42/32", "10.241.96.63/32", "10.241.96.64/32", "10.241.96.66/31", "10.241.96.72/32", "10.241.128.30/32", "10.241.129.5/32", "10.241.129.6/32", "10.241.129.21/32", "10.241.129.22/32", "10.241.129.39/32", "10.241.129.40/32", "10.241.129.68/31", "10.241.129.98/31", "10.241.129.114/31", "10.241.136.1/32", "10.241.136.2/31", "10.241.136.4/31", "10.241.136.6/32", "10.241.136.48/31", "10.241.160.6/32", "10.241.160.12/32", "10.241.160.18/32", "10.241.160.22/32", "10.241.160.79/32", "10.241.160.80/31", "10.241.160.82/32", "10.241.160.99/32", "126.12.102.134/31", "127.0.0.1/32", "192.168.2.6/32", "192.168.2.15/32", "192.168.2.41/32", "192.168.2.42/31", "192.168.2.65/32", "192.168.2.68/31", "192.168.2.71/32", "192.168.2.72/32", "192.168.2.89/32", "192.168.2.91/32", "192.168.2.92/32", "192.168.4.6/31", "192.168.4.13/32", "192.168.4.14/32", "192.168.4.16/32", "192.168.4.26/32", "192.168.60.4/31", "192.168.60.7/32", "192.168.60.8/32", "192.168.60.11/32", "192.168.60.12/32", "192.168.61.4/32", "192.168.61.6/31", "192.168.100.75/32", "192.168.100.76/32", "192.168.103.9/32", "192.168.103.10/32", "192.168.103.26/31", "192.168.103.28/31", "192.168.103.39/32", "192.168.103.40/32", "192.168.103.46/31", "192.168.103.49/32", "192.168.103.50/32", "192.168.103.81/32", "192.168.103.82/31", "192.168.103.84/32", "192.168.103.110/31", "192.168.103.112/32", "192.168.103.136/31", "192.168.104.19/32", "192.168.104.20/31", "192.168.104.22/32", "192.168.104.31/32", "192.168.104.32/32", "192.168.104.61/32", "192.168.104.62/32", "192.168.104.81/32", "192.168.104.82/31", "192.168.104.84/32", "192.168.104.133/32", "192.168.104.134/32", "192.168.104.139/32", "192.168.104.140/32", "192.168.105.10/31", "192.168.105.12/31", "192.168.105.17/32", "192.168.105.18/32", "192.168.105.146/31", "192.168.106.8/31", "192.168.106.11/32", "192.168.106.12/30", "192.168.106.16/32", "192.168.145.4/31", "192.168.145.8/31", "192.168.148.2/32", "192.168.148.4/32", "192.168.168.27/32", "192.168.168.28/32", "192.168.168.33/32", "192.168.168.34/32", "192.168.168.38/31", "192.168.168.105/32", "192.168.168.107/32", "192.168.168.108/32", "192.168.168.111/32", "192.168.168.112/31", "192.168.168.114/32", "192.168.168.120/31", "192.168.168.123/32", "192.168.168.211/32", "192.168.168.212/32", "192.168.168.217/32", "192.168.168.218/32", "192.168.204.2/31", "192.168.204.5/32", "192.168.204.6/32", "192.168.204.33/32", "192.168.204.34/32", "192.168.204.37/32", "192.168.205.2/32", "192.168.205.4/32", "192.168.205.11/32", "192.168.205.12/32", "::1/128"] AND logpoint_name="LP_INDEX") OR (device_ip IN ["127.0.0.1/32", "::1/128"] AND logpoint_name="LP_SEARCH")</t>
+  </si>
+  <si>
+    <t>(device_ip IN ['10.131.64.14/32', '10.131.64.22/32', '10.131.64.26/32', '10.131.64.30/32', '10.131.64.44/32', '10.131.64.66/32', '10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.64.212/32', '10.131.65.13/32', '10.131.65.73/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.168/32', '10.131.65.189/32', '10.131.65.191/32', '10.131.65.196/32', '10.131.65.235/32', '10.131.66.93/32', '10.131.67.25/32', '10.131.67.142/31', '10.131.67.144/31', '10.131.67.151/32', '10.131.67.152/32', '10.131.67.218/31', '10.131.178.58/31', '10.131.182.18/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.182.87/32', '10.131.182.88/32', '10.131.182.90/31', '10.131.182.93/32', '10.131.182.94/32', '10.131.184.30/32', '10.131.184.50/32', '10.131.184.55/32', '10.131.184.56/31', '10.131.202.24/32', '10.131.202.32/32', '10.131.208.54/32', '10.131.208.62/31', '10.131.210.9/32', '10.131.210.10/31', '10.131.210.12/32', '10.195.0.19/32', '10.195.0.20/30', '10.195.0.24/32', '10.196.0.19/32', '10.196.0.20/30', '10.196.0.24/32', '10.201.10.10/32', '10.201.10.30/32', '10.201.10.39/32', '10.201.10.53/32', '10.201.10.54/32', '10.201.10.75/32', '10.201.10.81/32', '10.201.10.82/32', '10.204.10.2/31', '10.241.64.20/32', '10.241.64.98/31', '10.241.64.114/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/31', '10.241.96.40/32', '10.241.96.42/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.128.30/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.136.1/32', '10.241.136.2/31', '10.241.136.4/31', '10.241.136.6/32', '10.241.136.48/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.18/32', '10.241.160.22/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '126.12.102.134/31', '127.0.0.1/32', '192.168.2.6/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.60.4/31', '192.168.60.7/32', '192.168.60.8/32', '192.168.60.11/32', '192.168.60.12/32', '192.168.61.4/32', '192.168.61.6/31', '192.168.100.75/32', '192.168.100.76/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/31', '192.168.103.84/32', '192.168.103.110/31', '192.168.103.112/32', '192.168.103.136/31', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.31/32', '192.168.104.32/32', '192.168.104.61/32', '192.168.104.62/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.104.133/32', '192.168.104.134/32', '192.168.104.139/32', '192.168.104.140/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.105.146/31', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/30', '192.168.106.16/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.27/32', '192.168.168.28/32', '192.168.168.33/32', '192.168.168.34/32', '192.168.168.38/31', '192.168.168.105/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.120/31', '192.168.168.123/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.168.217/32', '192.168.168.218/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32', '::1/128'] AND logpoint_name="LP_INDEX") OR (device_ip IN ['127.0.0.1/32', '::1/128'] AND logpoint_name="LP_SEARCH")</t>
+  </si>
+  <si>
+    <t>(device_ip IN ["10.130.4.85/32", "10.130.5.19/32", "10.131.64.26/31", "10.131.64.44/32", "10.131.64.69/32", "10.131.64.81/32", "10.131.64.222/31", "10.131.64.224/32", "10.131.65.58/32", "10.131.65.168/32", "10.131.65.189/32", "10.131.65.191/32", "10.131.66.93/32", "10.131.66.220/32", "10.131.67.25/32", "10.131.67.142/31", "10.131.67.144/31", "10.131.67.151/32", "10.131.67.152/32", "10.131.67.218/31", "10.131.146.11/32", "10.131.178.58/31", "10.131.178.108/32", "10.131.182.19/32", "10.131.182.26/32", "10.131.182.64/30", "10.131.182.68/31", "10.131.182.87/32", "10.131.182.88/32", "10.131.182.90/31", "10.131.182.93/32", "10.131.182.94/32", "10.131.184.30/32", "10.131.184.49/32", "10.131.184.50/32", "10.131.184.55/32", "10.131.184.56/31", "10.131.198.50/32", "10.131.202.24/32", "10.131.202.28/32", "10.131.202.32/32", "10.131.208.41/32", "10.131.208.50/32", "10.131.208.53/32", "10.131.208.54/32", "10.131.208.62/31", "10.131.208.79/32", "10.131.208.85/32", "10.131.210.9/32", "10.131.210.10/31", "10.131.210.12/32", "10.195.0.19/32", "10.195.0.20/30", "10.195.0.24/32", "10.196.0.19/32", "10.196.0.20/30", "10.196.0.24/32", "10.201.10.10/32", "10.201.10.30/32", "10.201.10.39/32", "10.201.10.53/32", "10.201.10.54/32", "10.201.10.75/32", "10.201.10.81/32", "10.201.10.82/32", "10.204.10.2/31", "10.241.64.10/32", "10.241.64.20/32", "10.241.64.98/31", "10.241.64.114/31", "10.241.64.130/31", "10.241.64.210/31", "10.241.64.213/32", "10.241.64.214/32", "10.241.64.231/32", "10.241.64.232/31", "10.241.64.234/32", "10.241.88.2/31", "10.241.96.18/32", "10.241.96.40/32", "10.241.96.42/32", "10.241.96.63/32", "10.241.96.64/32", "10.241.96.66/31", "10.241.96.72/32", "10.241.128.16/32", "10.241.128.26/31", "10.241.128.30/32", "10.241.129.5/32", "10.241.129.6/32", "10.241.129.21/32", "10.241.129.22/32", "10.241.129.39/32", "10.241.129.40/32", "10.241.129.68/31", "10.241.129.98/31", "10.241.129.114/31", "10.241.136.1/32", "10.241.136.2/31", "10.241.136.4/31", "10.241.136.6/32", "10.241.136.48/31", "10.241.160.6/32", "10.241.160.12/32", "10.241.160.18/32", "10.241.160.22/32", "10.241.160.47/32", "10.241.160.79/32", "10.241.160.80/31", "10.241.160.82/32", "10.241.160.99/32", "126.12.102.134/31", "127.0.0.1/32", "192.168.2.6/32", "192.168.2.15/32", "192.168.2.71/32", "192.168.2.72/32", "192.168.2.89/32", "192.168.2.91/32", "192.168.2.92/32", "192.168.4.13/32", "192.168.4.14/32", "192.168.4.26/32", "192.168.60.4/31", "192.168.60.7/32", "192.168.60.8/32", "192.168.60.11/32", "192.168.60.12/32", "192.168.61.4/32", "192.168.61.6/31", "192.168.100.75/32", "192.168.100.76/32", "192.168.103.9/32", "192.168.103.10/32", "192.168.103.26/31", "192.168.103.28/31", "192.168.103.39/32", "192.168.103.40/32", "192.168.103.46/31", "192.168.103.49/32", "192.168.103.50/32", "192.168.103.81/32", "192.168.103.82/31", "192.168.103.84/32", "192.168.103.110/31", "192.168.103.112/32", "192.168.103.136/31", "192.168.104.19/32", "192.168.104.20/32", "192.168.104.31/32", "192.168.104.32/32", "192.168.104.61/32", "192.168.104.62/32", "192.168.104.83/32", "192.168.104.84/32", "192.168.104.133/32", "192.168.104.134/32", "192.168.104.139/32", "192.168.104.140/32", "192.168.105.12/31", "192.168.105.146/31", "192.168.106.8/31", "192.168.106.11/32", "192.168.106.12/30", "192.168.106.16/32", "192.168.145.4/31", "192.168.145.8/31", "192.168.148.2/32", "192.168.148.4/32", "192.168.168.27/32", "192.168.168.28/32", "192.168.168.33/32", "192.168.168.34/32", "192.168.168.105/32", "192.168.168.107/32", "192.168.168.108/32", "192.168.168.120/31", "192.168.168.123/32", "192.168.168.211/32", "192.168.168.212/32", "192.168.168.217/32", "192.168.168.218/32", "192.168.204.5/32", "192.168.204.6/32", "192.168.204.37/32", "192.168.205.11/32", "192.168.205.12/32", "::1/128"] AND logpoint_name="LP_INDEX") OR (device_ip IN ["127.0.0.1/32", "::1/128"] AND logpoint_name="LP_SEARCH")</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>["environnement", "source_module", "duration"]</t>
+  </si>
+  <si>
+    <t>["group", "event_id"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "category", "sub_category", "message_id"]</t>
+  </si>
+  <si>
+    <t>["event_id", "user"]</t>
+  </si>
+  <si>
+    <t>["collected_at"]</t>
+  </si>
+  <si>
+    <t>["object", "action"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "label", "object", "days_remaining"]</t>
+  </si>
+  <si>
+    <t>["destination_port"]</t>
+  </si>
+  <si>
+    <t>["event_id", "event_source"]</t>
+  </si>
+  <si>
+    <t>["label", "user"]</t>
+  </si>
+  <si>
+    <t>["action"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "received_datasize", "sent_datasize"]</t>
+  </si>
+  <si>
+    <t>["target_user", "event_id", "action"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "event_id", "user"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "event_id", "image", "command", "user"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "event_id", "command_name", "command", "user"]</t>
+  </si>
+  <si>
+    <t>["norm_id", "event_id", "commandline", "command", "user"]</t>
+  </si>
+  <si>
+    <t>["device_name"]</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>"environnement"="EXP"  ("source_module"="iis_log_in") duration &gt; 30000</t>
+  </si>
+  <si>
+    <t>group IN MATMUT_LST_GRP_PRIVILEGES_T1 -event_id="4737" AND -event_id="4735" AND -event_id="4755" AND -event_id="4745" AND -event_id="4750" AND -event_id="4760"</t>
+  </si>
+  <si>
+    <t>norm_id=Forti* category=event sub_category=vpn message_id=39426</t>
+  </si>
+  <si>
+    <t>event_id="4776" NOT user IN MATMUT_LST_CPT_SEUIL_NTLM_ELEVE</t>
+  </si>
+  <si>
+    <t>collected_at="LP_COLLECTOR03"</t>
+  </si>
+  <si>
+    <t>"object"="Certificate" "action"="expired"</t>
+  </si>
+  <si>
+    <t>destination_port=25</t>
+  </si>
+  <si>
+    <t>group IN MATMUT_LST_GRP_PRIVILEGES_T2 -event_id="4737" AND -event_id="4735" AND -event_id="4755" AND -event_id="4745" AND -event_id="4750" AND -event_id="4760"</t>
+  </si>
+  <si>
+    <t>event_id="1102" event_source="Microsoft-Windows-Security-Auditing"</t>
+  </si>
+  <si>
+    <t>collected_at="LP_COLLECTOR01"</t>
+  </si>
+  <si>
+    <t>label="kerberos" user="poulain.amelie"</t>
+  </si>
+  <si>
+    <t>norm_id=Forti* (received_datasize=* OR sent_datasize=*)</t>
+  </si>
+  <si>
+    <t>event_id="4740""user"="poulain.amelie"</t>
+  </si>
+  <si>
+    <t>"target_user" IN MATMUT_LST_GRP_PRIVILEGES_T0 "event_id"="4648" action="*"</t>
+  </si>
+  <si>
+    <t>"target_user" IN MATMUT_LST_GRP_PRIVILEGES_T2 "event_id"="4648" action="*"</t>
+  </si>
+  <si>
+    <t>[user="poulain.amelie" source_address=* | process dns(source_address) as Hostname | search -Hostname="srv*" -Hostname="sci*" -Hostname="zrv*" -Hostname="zci*" -Hostname="localhost."| SEARCH -not_resolved_host IN MATMUT_LST_SRV_ALLOWPOULAINT1 | norm on Hostname &lt;machine:"([A-Za-z]{2}[0-9]{5}|[bB]{1}[0-9]{6})"&gt; | search machine="*"] as s1   join [workstation="*"]  as s2  on s2.workstation = s1.machine</t>
+  </si>
+  <si>
+    <t>label="kerberos" -user="*$" NOT user IN MATMUT_LST_CPT_SEUIL_KERBEROS_ELEVE</t>
+  </si>
+  <si>
+    <t>norm_id=WinServer event_id=4103 (command_name="get-childitem*" OR command="get-childitem*") -user IN EXCLUDED_USERS</t>
+  </si>
+  <si>
+    <t>norm_id=WinServer event_id=4688 (commandline = "*tree*" OR command = "*tree*") -user IN EXCLUDED_USERS</t>
+  </si>
+  <si>
+    <t>device_name="SRVPDC0*" OR device_name="SCIPDC0*"</t>
+  </si>
+  <si>
+    <t>((environnement:EXP AND (source_module:iis_log_in)) AND _num_duration:{30000 TO *})</t>
+  </si>
+  <si>
+    <t>(((((((group:t1\-* OR group:Admins_Vmware OR group:a_mettre_a_jour OR group:Admins\ Etudes OR group:Serveurs\-Exploitation) AND ((-(event_id:4737 OR _num_event_id:[4737 TO 4737])))) AND ((-(event_id:4735 OR _num_event_id:[4735 TO 4735])))) AND ((-(event_id:4755 OR _num_event_id:[4755 TO 4755])))) AND ((-(event_id:4745 OR _num_event_id:[4745 TO 4745])))) AND ((-(event_id:4750 OR _num_event_id:[4750 TO 4750])))) AND ((-(event_id:4760 OR _num_event_id:[4760 TO 4760]))))</t>
+  </si>
+  <si>
+    <t>(((norm_id:Forti* AND category:event) AND sub_category:vpn) AND (message_id:39426 OR _num_message_id:[39426 TO 39426]))</t>
+  </si>
+  <si>
+    <t>((event_id:4776 OR _num_event_id:[4776 TO 4776]) AND ((-(user:pool.rce OR user:kerberos.matmutnet OR user:admev))))</t>
+  </si>
+  <si>
+    <t>collected_at:LP_COLLECTOR03</t>
+  </si>
+  <si>
+    <t>(object:Certificate AND action:expired)</t>
+  </si>
+  <si>
+    <t>(((norm_id:LogPoint AND label:Audit) AND object:License\ checker) AND (days_remaining:* OR _num_days_remaining:*))</t>
+  </si>
+  <si>
+    <t>(destination_port:25 OR _num_destination_port:[25 TO 25])</t>
+  </si>
+  <si>
+    <t>(((((((group:t2\-*) AND ((-(event_id:4737 OR _num_event_id:[4737 TO 4737])))) AND ((-(event_id:4735 OR _num_event_id:[4735 TO 4735])))) AND ((-(event_id:4755 OR _num_event_id:[4755 TO 4755])))) AND ((-(event_id:4745 OR _num_event_id:[4745 TO 4745])))) AND ((-(event_id:4750 OR _num_event_id:[4750 TO 4750])))) AND ((-(event_id:4760 OR _num_event_id:[4760 TO 4760]))))</t>
+  </si>
+  <si>
+    <t>((event_id:1102 OR _num_event_id:[1102 TO 1102]) AND event_source:Microsoft\-Windows\-Security\-Auditing)</t>
+  </si>
+  <si>
+    <t>collected_at:LP_COLLECTOR01</t>
+  </si>
+  <si>
+    <t>(label:kerberos AND user:poulain.amelie)</t>
+  </si>
+  <si>
+    <t>action:expire</t>
+  </si>
+  <si>
+    <t>(norm_id:Forti* AND (((received_datasize:* OR _num_received_datasize:*) OR (sent_datasize:* OR _num_sent_datasize:*))))</t>
+  </si>
+  <si>
+    <t>((event_id:4740 OR _num_event_id:[4740 TO 4740]) AND user:poulain.amelie)</t>
+  </si>
+  <si>
+    <t>(((target_user:Administrateurs\ du\ schéma OR target_user:Protected\ Users OR target_user:Opérateurs\ d'impression OR target_user:Opérateurs\ de\ serveur OR target_user:Administrateurs\ de\ l'entreprise OR target_user:Opérateurs\ de\ compte OR target_user:Admins\ du\ domaine OR target_user:t0\-* OR target_user:Administrateurs OR target_user:DnsAdmins OR target_user:Opérateurs\ de\ sauvegarde) AND (event_id:4648 OR _num_event_id:[4648 TO 4648])) AND (action:* OR _num_action:*))</t>
+  </si>
+  <si>
+    <t>(((target_user:t2\-*) AND (event_id:4648 OR _num_event_id:[4648 TO 4648])) AND (action:* OR _num_action:*))</t>
+  </si>
+  <si>
+    <t>((label:kerberos AND ((-user:*$))) AND ((-(user:sasinst OR user:admev OR user:farm.rcerct OR user:farm.rce OR user:farm02.rcedev OR user:farm.rceint OR user:farm01.rcedev))))</t>
+  </si>
+  <si>
+    <t>((norm_id:WinServer AND (event_id:4798 OR _num_event_id:[4798 TO 4798])) AND ((-(user:*$ OR user:\-))))</t>
+  </si>
+  <si>
+    <t>(((norm_id:WindowsSysmon AND (event_id:1 OR _num_event_id:[1 TO 1])) AND (((((image:*\\Bloodhound.exe* OR image:*\\SharpHound.exe*) OR (command:*\ \-CollectionMethod\ All\ * OR command:*.exe\ \-c\ All\ \-d\ * OR command:*Invoke\-Bloodhound* OR command:*Get\-BloodHoundData*)) OR ((command:*\ \-JsonFolder\ * AND command:*\ \-ZipFileName\ *))) OR ((command:*\ DCOnly\ * AND command:*\ \-\-NoSaveCache\ *))))) AND ((-(user:*$ OR user:\-))))</t>
+  </si>
+  <si>
+    <t>(((norm_id:WinServer AND (event_id:4103 OR _num_event_id:[4103 TO 4103])) AND ((command_name:get\-childitem* OR command:get\-childitem*))) AND ((-(user:*$ OR user:\-))))</t>
+  </si>
+  <si>
+    <t>(((norm_id:WinServer AND (event_id:4688 OR _num_event_id:[4688 TO 4688])) AND ((commandline:*tree* OR command:*tree*))) AND ((-(user:*$ OR user:\-))))</t>
+  </si>
+  <si>
+    <t>(device_name:SRVPDC0* OR device_name:SCIPDC0*)</t>
+  </si>
+  <si>
+    <t>["count()"]</t>
+  </si>
+  <si>
+    <t>["login_count"]</t>
+  </si>
+  <si>
+    <t>["Event"]</t>
+  </si>
+  <si>
+    <t>["DC"]</t>
+  </si>
+  <si>
+    <t>["resourceNameSmall"]</t>
+  </si>
+  <si>
+    <t>["Modificateur", "action", "Utilisateur", "group", "DomainController", "log_ts"]</t>
+  </si>
+  <si>
+    <t>["log_ts", "user", "action", "reason", "message"]</t>
+  </si>
+  <si>
+    <t>["user"]</t>
+  </si>
+  <si>
+    <t>["certificate"]</t>
+  </si>
+  <si>
+    <t>["source_address"]</t>
+  </si>
+  <si>
+    <t>["''Modificateur''", "action", "Utilisateur", "group", "DomainController", "log_ts"]</t>
+  </si>
+  <si>
+    <t>["log_ts"]</t>
+  </si>
+  <si>
+    <t>["user", "workstation", "log_ts"]</t>
+  </si>
+  <si>
+    <t>["Utilisateur_source", "RunAs", "Utilisateur_cible", "DomainController", "log_ts"]</t>
+  </si>
+  <si>
+    <t>["time", "src_user", "src_adr", "src_host", "evt", "message", "dst_user"]</t>
+  </si>
+  <si>
     <t>["10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu"]</t>
   </si>
   <si>
@@ -1382,495 +2008,6 @@
   </si>
   <si>
     <t>["10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
-  </si>
-  <si>
-    <t>ALERT_735</t>
-  </si>
-  <si>
-    <t>ALERT_13</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>["ldap_CN=LE LEVIER Aurélien,OU=Siege,OU=Utilisateur,DC=matmut,DC=fr"]</t>
-  </si>
-  <si>
-    <t>etudes</t>
-  </si>
-  <si>
-    <t>securite</t>
-  </si>
-  <si>
-    <t>ldap_CN=PFOH Stéphan,OU=Internes,OU=PRD,OU=Users,OU=T2,DC=matmut,DC=fr</t>
-  </si>
-  <si>
-    <t>adfs_nguyen.vincent</t>
-  </si>
-  <si>
-    <t>adfs_lelevier.aurelien</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>greaterthan</t>
-  </si>
-  <si>
-    <t>equals</t>
-  </si>
-  <si>
-    <t>moreequal</t>
-  </si>
-  <si>
-    <t>notequal</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5bf3e54d03a0f32ee1e1ebc7</t>
-  </si>
-  <si>
-    <t>5df8af7f03a0f351b1487c93</t>
-  </si>
-  <si>
-    <t>5a61fb4103a0f34af015fad6</t>
-  </si>
-  <si>
-    <t>5f50f6ccaabaf90062ab0049</t>
-  </si>
-  <si>
-    <t>637395a3def0bfd60151d472</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'INAVERCJIYQC2ICBINKESVSFEBCESUSFINKE6USZEAWSATKPIREUMSKDIFKEST2OEBDVET2VKBCSAVBR'.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&amp;nbsp;&lt;/font&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;cette alerte concerne Cardif-IARD,&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le groupe&amp;nbsp;&lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.group}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a été modifié par&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Modificateur}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;en réalisant l'action&amp;nbsp;&lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.action}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&amp;nbsp;sur l'utilisateur&amp;nbsp;&lt;b style=\"font-style: italic;\"&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur}}&lt;/font&gt;&lt;/b&gt;.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "CARDIF - ACTIVE DIRECTORY - MODIFICATION GROUPE T1", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICGJ5JFISKHIFKEKICWKBHCAU2TJQQC2ICFKJJEKVKSEBCEKICDJ5HE4RKYJFHU4==='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car une erreur d'authentification a été détectée sur Fortigate VPN SSL.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser les modifications en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - FORTIGATE VPN SSL - ERREUR DE CONNEXION", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAU2FKVEUYICCIFJSARCFEBBU6TSOIVMEST2OKMQE4VCMJUQEIRKQIFJVGRI='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le compte&amp;nbsp;&lt;/font&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.user}}&amp;nbsp;&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;a dépassé la valeur limite de connexions NTLM journalières.&lt;/span&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - SEUIL BAS DE CONNEXIONS NTLM DEPASSE", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JRHUOUCPJFHFIIBNEBAUITKJJZEVGVCSIFKEST2OEAWSAQ2PJRGEKQ2UIVKVEIBQGMQEQUY='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 03 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'K5AUMICGGUQC2ICBIRGUSTSJKNKFEQKUJFHU4IBNEBBUKUSUJFDESQ2BKQQEKWCQJFJEK==='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&amp;nbsp;Le certificat&amp;nbsp; {{row.certificate}} a expiré&lt;/font&gt;&lt;/div&gt;&lt;div style=\"font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% endfor%}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous\r\npouvez visualiser l’évènement&amp;nbsp;en cliquant sur le lien \"Search\r\nLink\" ci-dessous.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" style=\"\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] WAF F5 - ADMINISTRATION - CERTIFICAT EXPIRE", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"template_file": "alert_5a61fb4103a0f34af015fad6_JRIF6TDPM5IG62LOOQQEY2LDMVXHGZJAIV4HA2LSPEQFG5DBOR2XG===.tmp", "notify_email": false, "email_template": "&lt;style type=\"text/css\"&gt;\n\t.alert-table{\n\t\tborder: 1px solid #eee;\n\t\tmargin: 0px;\n\t\tpadding: 0px;\t\t\n\t}\n\t.alert-table-th{\n\t\ttext-align: left;\n\t\tborder-bottom: 2px solid #eee;\n\t\tpadding: 5px;\n\t\tcolor: #ffffff;\n\t\tbackground-color: #646883;\n\t\tfont-family: helvetica;\n\t\tfont-size: 16px;\n\t}\n\t.alert-table-td{\n\t\tborder-left: 1px solid #eee;\n\t\ttext-align: left;\n\t\tborder-bottom: 1px solid #eee;\n\t\tpadding: 5px;\n\t\tfont-family: helvetica;\n\t\tfont-size: 15px;\n\t}\n\t.even{\n\t\tbackground:#f6f6f8;\n\t}\n\n\t.odd{\n\t\tbackground:#ffffff;\n\t}\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t&lt;tbody&gt;&lt;tr&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Event Time&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;Object&lt;/th&gt;\n\t\t&lt;th width=\"200\" class=\"alert-table-th\"&gt;License Expires in&lt;/th&gt;\n\t&lt;/tr&gt;\n\n\t&lt;tr&gt;\n\t\t&lt;td colspan=\"4\"&gt;\n\t\t\t{% for row in rows %}\n\t\t\t&lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n\t\t\t\t&lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts | datetime}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.object}}&lt;/td&gt;\n\t\t\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.days_remaining}}&lt;/td&gt;\n\t\t\t\t&lt;/tr&gt;\n\t\t\t&lt;/tbody&gt;&lt;/table&gt;\n\t\t\t{% endfor %}\n\t\t&lt;/td&gt;\n\t&lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "email_emails": [], "threshold": {}, "type": "email", "subject": "LP_LogPoint License Expiry Status"}, {"threshold_value": null, "protocol": "UDP", "severity": 4, "facility": 14, "port": 514, "threshold_option": null, "notify_syslog": true, "split_rows": true, "server": "127.0.0.1", "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_object: {{row.object}}; incident_day: {{row.days_remaining}}; incident_criteria: {{description}}.\n{% endfor %}"}]</t>
-  </si>
-  <si>
-    <t>[{"template_file": "alert_5f50f6ccaabaf90062ab0049_b'JRIF6RDFMZQXK3DUEBEGSZ3IEB2W42LROVSSAU2NKRICAVDSMFTGM2LD'.tmp", "type": "email", "notify_email": false, "email_emails": [], "email_template": "&lt;style type=\"text/css\"&gt;\n    .alert-table{\n        border: 1px solid #eee;\n        margin: 0px;\n        padding: 0px;       \n    }\n    .alert-table-th{\n        text-align: left;\n        border-bottom: 2px solid #eee;\n        padding: 5px;\n        color: #ffffff;\n        background-color: #646883;\n        font-family: helvetica;\n        font-size: 16px;\n    }\n    .alert-table-td{\n        border-left: 1px solid #eee;\n        text-align: left;\n        border-bottom: 1px solid #eee;\n        padding: 5px;\n        font-family: helvetica;\n        font-size: 15px;\n    }\n    .even{\n        background:#f6f6f8;\n    }\n\n    .odd{\n        background:#ffffff;\n    }\n&lt;/style&gt;\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\n    &lt;tbody&gt;&lt;tr&gt;\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;SOURCE ADDRESS&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\n\n    &lt;/tr&gt;\n\n    &lt;tr&gt;\n        &lt;td colspan=\"6\"&gt;\n            {% for row in rows %}\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.source_address}}&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.Event}}&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Impact,Exfiltration,Command And Control&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1498,T1041,T1071&lt;/td&gt;\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Network Denial of Service,Exfiltration Over C2 Channel,Application Layer Protocol,Commonly Used Port&lt;/td&gt;\n\n                &lt;/tr&gt;\n            &lt;/tbody&gt;&lt;/table&gt;\n            {% endfor %}\n        &lt;/td&gt;\n    &lt;/tr&gt;\n&lt;/tbody&gt;&lt;/table&gt;\n", "threshold": {}, "subject": "LP_Default High unique SMTP Traffic"}, {"type": "syslog", "notify_syslog": true, "server": "127.0.0.1", "port": 514, "severity": 1, "facility": 14, "threshold_value": null, "threshold_option": null, "protocol": "TCP", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_count: {{row.Event}}; incident_address: {{row.source_address}}; attack_category: Impact,Exfiltration,Command And Control; attack_tag: Network Denial of Service,Exfiltration Over C2 Channel,Application Layer Protocol,Commonly Used Port; attack_id: T1498,T1041,T1071,; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "split_rows": true}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T2.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car un groupe privilégié T2 a été modifié.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser les modifications en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "email_emails": [], "subject": "MATMUT - ACTIVE DIRECTORY - MODIFICATION GROUPE T2", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - SUPPRESSION DE LOGS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Bonjour,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Vous recevez ce mail car un ou plusieurs logs ont été effacés sur un contrôleur de domaine.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Vous pouvez visualiser l’événement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" color=\"#ff0000\"&gt;&lt;b&gt;Cordialement,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "MATMUT - ACTIVE DIRECTORY - SUPPRESSION DE LOGS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_CARDIF - ACTIVE DIRECTORY - SUPPRESSION DE LOGS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Bonjour,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Vous recevez ce mail car un ou plusieurs logs ont été effacés sur un contrôleur de domaine.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Vous pouvez visualiser l’événement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;&lt;br&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font color=\"#ff0000\" face=\"arial\" size=\"3\"&gt;&lt;b&gt;Cordialement,&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "CARDIF - ACTIVE DIRECTORY - SUPPRESSION DE LOGS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_LOGPOINT - ADMINISTRATION - COLLECTEUR 01 HS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 01 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "LOGPOINT - ADMINISTRATION - COLLECTEUR 01 HS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "raw_emails": [], "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le collecteur 03 de LogPoint ne reçoit plus de logs.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "subject": "LOGPOINT - ADMINISTRATION - COLLECTEUR 03 HS", "type": "email", "threshold_option": null, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "notify_email": false, "template_file": "alert_637395a3def0bfd60151d472_MATMUT - ACTIVE DIRECTORY - SEUIL DE CONNEXIONS KERBEROS DEPASSE compte amelie poulain.tmp", "email_template": "&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car le compte poulain.amelie a dépassé sa valeur limite habituelle de connexions Kerberos journalières.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "email_emails": [], "threshold_option": null, "raw_emails": [], "type": "email", "subject": "MATMUT - ACTIVE DIRECTORY - SEUIL DE CONNEXIONS KERBEROS DEPASSE - COMPTE poulain.amelie", "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_WAF F5 - ADMINISTRATION - CERTIFICATE WILL EXPIRE.tmp", "notify_email": false, "email_emails": [], "email_template": "&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Le certificat&amp;nbsp;&lt;/font&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.CN}} &lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;va expirer le&amp;nbsp;&lt;/span&gt;&lt;b style=\"font-family: arial; font-size: medium;\"&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.expire_ts}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&amp;nbsp;{% endfor%}&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement&amp;nbsp;en cliquant sur le lien \"Search Link\" ci-dessous.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "WAF F5 - ADMINISTRATION - CERTIFICATE WILL EXPIRE", "raw_emails": [], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICGJ5JFISKHIFKEKIBNEBKVISKMJFJUCVCJJ5HCARKYINCVGU2JKZCSARCFEBGECICCIFHEIRJAKBAVGU2BJZKEK==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;font face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;Vous recevez cette alerte car plus de 500Go de données ont été envoyé vers l'extérieur durant les 5 dernières minutes à destination des pays suivant :&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;{% for row in rows%}&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;ul&gt;&lt;li&gt;&lt;font face=\"arial\"&gt;{{row.destination_location}}&lt;/font&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - FORTIGATE - UTILISATION EXCESSIVE DE LA BANDE PASSANTE", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICDJ5GVAVCFEBAU2RKMJFCSAUCPKVGECSKOEBLEKUSSJ5KUSTCMIU======'.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr", "exploit-app-x86@matmut.fr"], "email_template": "&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Bonjour,&lt;/span&gt;&lt;/font&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;Vous recevez ce mail car le compte poulain.amelie a&amp;nbsp;été verrouillé&amp;nbsp;depuis\r\nle Hostname : &lt;/span&gt;&lt;font color=\"#3366ff\" style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;b&gt;&lt;i&gt;{{row.workstation}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&amp;nbsp;&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;{%endfor%}&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Sur les 15 dernières minutes.&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Vous pouvez visualiser l'évènement en cliqaunt sur le lien \"Searche Link\" ci-dessous.&lt;/span&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Cordialement,&lt;/span&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;/span&gt;&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - COMPTE AMELIE POULAIN VERROUILLE", "raw_emails": ["ssi@matmut.fr", "exploit-app-x86@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIVMFATCJINEVIRJAIRCSAQ2SIVCEKTSUJFAUYICDJ5GVAVCFEBKDA==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Vous recevez ce mail car l'utilisateur &lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.Utilisateur_source}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a tenté de s’identifier en tant que &lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur_cible}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; de manière explicite.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Merci de vous assurer de la légitimité des actions effectuées.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - ACTIVE DIRECTORY - UTILISATION EXPLICIT DE CREDENTIAL COMPTE T0", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_637395a3def0bfd60151d472_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIVMFATCJINEVIRJAIRCSAQ2SIVCEKTSUJFAUYICDJ5GVAVCFEBKDE==='.tmp", "notify_email": true, "email_emails": ["lelevier.aurelien@matmut.fr"], "email_template": "&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Vous recevez ce mail car l'utilisateur &lt;font color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.Utilisateur_source}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&amp;nbsp;a tenté de s’identifier en tant que &lt;b&gt;&lt;i&gt;&lt;font color=\"#3366ff\"&gt;{{row.Utilisateur_cible}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; de manière explicite.&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Merci de vous assurer de la légitimité des actions effectuées.&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "MATMUT - ACTIVE DIRECTORY - UTILISATION EXPLICIT DE CREDENTIAL COMPTE T2", "raw_emails": ["lelevier.aurelien@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAVKUJFGESU2BKREU6TRAIRKSAQ2PJVIFIRJAIFGUKTCJIUQFAT2VJRAUSTRAKBHVGVCFKMQESTCMIVDUSVCJJVCQ===='.tmp", "notify_email": true, "email_emails": ["ssi@matmut.fr"], "email_template": "&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Bonjour,&lt;/span&gt;&lt;/font&gt;&lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;font size=\"3\" face=\"arial\"&gt;{% for row in rows %}&lt;/font&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;Vous recevez ce mail car le compte : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.dst_user}} &lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;a&amp;nbsp;été utilisé par &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;: {{row.src_user}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; depuis\r\nle Hostname : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.src_host}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; via l'adresse ip : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.src_adr}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt; le : &lt;/span&gt;&lt;font style=\"font-family: Arial, sans-serif; font-size: 12pt;\" color=\"#3366ff\"&gt;&lt;b&gt;&lt;i&gt;{{row.time}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&amp;nbsp; &lt;/span&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 12pt;\"&gt;&lt;/span&gt;&lt;/div&gt;&lt;div&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;{%endfor%}&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;Sur les 15 dernières minutes.&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Vous pouvez visualiser l'évènement en cliqaunt sur le lien \"Searche Link\" ci-dessous.&lt;/span&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;span style=\"font-family: Arial, sans-serif; font-size: 16px;\"&gt;Cordialement,&lt;/span&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;p class=\"MsoNormal\" style=\"background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial;\"&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;font face=\"Arial, sans-serif\"&gt;&lt;span style=\"font-size: 16px;\"&gt;&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - UTILISATION DU COMPTE AMELIE POULAIN POSTE ILLEGITIME", "raw_emails": ["ssi@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICBINKESVSFEBCESUSFINKE6USZEAWSAU2FKVEUYICCIFJSARCFEBBU6TSOIVMEST2OKMQEWRKSIJCVET2TEBCEKUCBKNJUK==='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;div&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" style=\"\"&gt;Vous recevez ce mail car le compte &lt;b style=\"\"&gt;&lt;i style=\"\"&gt;&lt;font color=\"#3366ff\"&gt;{{row.user}}&lt;/font&gt;&lt;/i&gt;&lt;/b&gt; a dépassé la valeur limite de connexions Kerberos journalières.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;{%endfor%}&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0);\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - ACTIVE DIRECTORY - SEUIL BAS DE CONNEXIONS KERBEROS DEPASSE", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_message: {{row.message}}; attack_category: Discovery; attack_tag: Account Discovery,Local Account; attack_id: T1087,T1087.001; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "server": "127.0.0.1", "notify_syslog": true, "dispatch_option": "auto", "split_rows": true, "threshold_option": null, "type": "syslog", "port": 514}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICXNFXGI33XOMQFK43FOIQEY33DMFWCAR3SN52XAICFNZ2W2ZLSMF2GS33O'.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;GROUP&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;MESSAGE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.group}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.message}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1087,T1087.001&lt;/td&gt;\r\n\t\t\t&lt;td class=\"alert-table-td\" width=\"200\"&gt;Account Discovery,Local Account&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "User Group Enumeration by Non-Administrator Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_integrity_level: {{row.integrity_level}}; incident_parent_command: {{row.parent_command}}; attack_category: Discovery; attack_tag: Account Discovery; attack_id: T1087; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "threshold_option": null, "type": "syslog", "split_rows": true}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICCNRXW6ZDIN52W4ZBAMFXGIICTNBQXE4DIN52W4ZBAJBQWG2ZAKRXW63BAIRSXIZLDORSWI==='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;APPLICATION&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HASH&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;INTEGRITY LEVEL&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;FILE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;PARENT COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.application}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.hash}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.integrity_level}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.file}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.parent_command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1087&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Account Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT Bloodhound and Sharphound Hack Tool Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_command_type: {{row.command_type}}; incident_payload: {{row.payload}}; attack_category: Discovery; attack_tag: File and Directory Discovery; attack_id: T1083; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}", "threshold_option": null, "type": "syslog", "split_rows": true}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICGNFWGKIDBNZSCARDJOJSWG5DPOJ4SARDJONRW65TFOJ4SAVLTNFXGOICQN53WK4STNBSWY3BAIRSXIZLDORSWI==='.tmp", "notify_email": true, "email_emails": ["cybersoc.matmut@matmut.fr", "cybersoc.gestion@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND TYPE&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;PAYLOAD&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"11\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command_type}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.payload}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1083&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;File and Directory Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - File and Directory Discovery Using PowerShell Detected", "raw_emails": ["cybersoc.gestion@matmut.fr", "cybersoc.matmut@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"threshold_value": null, "protocol": "TCP", "severity": 1, "facility": 14, "port": 514, "server": "127.0.0.1", "notify_syslog": true, "split_rows": true, "threshold_option": null, "type": "syslog", "message": "{% for row in rows %}\nincident_name: {{alert_name}}; incident_ts: {{row.log_ts}}; incident_host: {{row.host}}; incident_user: {{row.user}}; incident_target_user: {{row.target_user}}; incident_caller_user: {{row.caller_user}}; incident_domain: {{row.domain}}; incident_target_domain: {{row.target_domain}}; incident_action: {{row.action}}; incident_status: {{row.status}}; incident_workstation: {{row.workstation}}; incident_source_address: {{row.source_address}}; incident_destination_address: {{row.destination_address}}; incident_destination_port: {{row.destination_port}}; incident_application: {{row.application}}; incident_group: {{row.group}}; incident_hardware_address: {{row.hardware_address}}; incident_hash: {{row.hash}}; incident_object_name: {{row.object_name}}; incident_process: {{row.process}}; incident_path: {{row.path}}; incident_file: {{row.file}}; incident_command: {{row.command}}; incident_process: {{row.process}}; attack_category: Discovery; attack_tag: File and Directory Discovery; attack_id: T1083; attack_framework: MITRE; incident_criteria: {{description}}.\n{% endfor %}"}, {"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JVAVITKVKQQC2ICENFZWG33WMVZHSIDWNFQSARTJNRSSAYLOMQQEI2LSMVRXI33SPEQEI2LTMNXXMZLSPEQFK43JNZTSAQ3PNVWWC3TEEBIHE33NOB2A===='.tmp", "notify_email": true, "email_emails": ["cybersoc.matmut@matmut.fr", "cybsersoc.gestion@matmut.fr"], "email_template": "&lt;style type=\"text/css\"&gt;\r\n    .alert-table{\r\n        border: 1px solid #eee;\r\n        margin: 0px;\r\n        padding: 0px;       \r\n    }\r\n    .alert-table-th{\r\n        text-align: left;\r\n        border-bottom: 2px solid #eee;\r\n        padding: 5px;\r\n        color: #ffffff;\r\n        background-color: #646883;\r\n        font-family: helvetica;\r\n        font-size: 16px;\r\n    }\r\n    .alert-table-td{\r\n        border-left: 1px solid #eee;\r\n        text-align: left;\r\n        border-bottom: 1px solid #eee;\r\n        padding: 5px;\r\n        font-family: helvetica;\r\n        font-size: 15px;\r\n    }\r\n    .even{\r\n        background:#f6f6f8;\r\n    }\r\n\r\n    .odd{\r\n        background:#ffffff;\r\n    }\r\n&lt;/style&gt;\r\n&lt;table class=\"alert-table\" cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n    &lt;tbody&gt;&lt;tr&gt;\r\n        &lt;th width=\"200\" class=\"alert-table-th\"&gt;EVENT TIME&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;HOST&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;USER&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;DOMAIN&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;COMMAND&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;\"PROCESS\"&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK FRAMEWORK&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK CATEGORY&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK ID&lt;/th&gt;\r\n&lt;th width=\"200\" class=\"alert-table-th\"&gt;ATTACK TAG&lt;/th&gt;\r\n\r\n    &lt;/tr&gt;\r\n\r\n    &lt;tr&gt;\r\n        &lt;td colspan=\"10\"&gt;\r\n            {% for row in rows %}\r\n            &lt;table cellpadding=\"0\" cellspacing=\"0\"&gt;\r\n                &lt;tbody&gt;&lt;tr class=\"{{ loop.cycle('odd', 'even') }}\"&gt;\r\n                    &lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.log_ts|datetime}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.host}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.user}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.domain}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.command}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;{{row.process}}&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Mitre&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;Discovery&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;T1083&lt;/td&gt;\r\n&lt;td class=\"alert-table-td\" width=\"200\"&gt;File and Directory Discovery&lt;/td&gt;\r\n\r\n                &lt;/tr&gt;\r\n            &lt;/tbody&gt;&lt;/table&gt;\r\n            {% endfor %}\r\n        &lt;/td&gt;\r\n    &lt;/tr&gt;\r\n&lt;/tbody&gt;&lt;/table&gt;\r\n", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "[ALERTE] MATMUT - Discovery via File and Directory Discovery Using Command Prompt", "raw_emails": ["cybersoc.matmut@matmut.fr", "cybsersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "email", "template_file": "alert_5df8af7f03a0f351b1487c93_b'JRHUOUCPJFHFIIBNEBEEKQKMKREEGSCFINFSALJAJRXWO4ZAIFCCA3LBNZYXKYLOORZQ===='.tmp", "notify_email": true, "email_emails": ["cybersoc.gestion@matmut.fr"], "email_template": "&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Bonjour,&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous recevez ce mail car les logs ne semblent pas remonter correctement depuis les 8 DC.&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;&lt;br&gt;&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Liste des DC actifs :&lt;/font&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{% for row in rows %}&lt;/span&gt;&lt;/div&gt;&lt;div style=\"\"&gt;&lt;div style=\"\"&gt;&lt;font face=\"arial\" size=\"3\" style=\"\" color=\"#0000ff\"&gt;&lt;b style=\"\"&gt;&lt;i style=\"\"&gt;&amp;nbsp;- {{row.device_name}}&lt;/i&gt;&lt;/b&gt;&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;{%endfor%}&lt;/span&gt;&lt;br&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;span style=\"font-family: arial; font-size: medium;\"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;div&gt;&lt;font face=\"arial\" size=\"3\"&gt;Vous pouvez visualiser l’évènement en cliquant sur le lien \"Search Link\" ci-dessous.&lt;/font&gt;&lt;/div&gt;&lt;/div&gt;&lt;div style=\"color: rgb(0, 0, 0); font-family: avenir, helvetica, arial, verdana, sans-serif; font-size: 12px;\"&gt;&lt;font face=\"arial\" size=\"3\"&gt;Cordialement,&lt;/font&gt;&lt;/div&gt;", "simple_view": null, "threshold_value": null, "threshold_option": null, "subject": "LOGPOINT - HEALTHCHECK - Logs AD manquants", "raw_emails": ["cybersoc.gestion@matmut.fr"], "dispatch_option": "auto", "link_disable": false, "logo_enable": true, "logo_type": "default"}]</t>
-  </si>
-  <si>
-    <t>0a6c370cbfc89fd80cefce1d70e02877</t>
-  </si>
-  <si>
-    <t>f3325c67289e7fb3347585b61bdecd95</t>
-  </si>
-  <si>
-    <t>62f94633a87fe7afb9675bd61ef3f80c</t>
-  </si>
-  <si>
-    <t>261ac29663d2ad3a8bbb6c4fad2384f6</t>
-  </si>
-  <si>
-    <t>92e9bcde9ff873fcd7ec050ec52d87cb</t>
-  </si>
-  <si>
-    <t>c4cebf33e5bc1962c74415d073ef2587</t>
-  </si>
-  <si>
-    <t>56518575f22a82f6bfbc273851ec43ba</t>
-  </si>
-  <si>
-    <t>c3a81f6cfaa072faab38a2b2f03d3272</t>
-  </si>
-  <si>
-    <t>b4dda06157164f4379aa2d9f635e8d6e</t>
-  </si>
-  <si>
-    <t>5b749a7a39818bc07e7e7fed450c6efd</t>
-  </si>
-  <si>
-    <t>b8fabcd7b4f9ca031a07885f6d0b7f34</t>
-  </si>
-  <si>
-    <t>8383ac20748f11594d0c0015a1f1c0c0</t>
-  </si>
-  <si>
-    <t>e46e7d05621f4796a18006674be527aa</t>
-  </si>
-  <si>
-    <t>0da0bf4d95f75db232cb39fa9160731e</t>
-  </si>
-  <si>
-    <t>e71c48b294876193993a58f10775d14b</t>
-  </si>
-  <si>
-    <t>89207e4d2dcdd536e7f912cb305e0c55</t>
-  </si>
-  <si>
-    <t>797de07cab9856a5683102fe8e80e585</t>
-  </si>
-  <si>
-    <t>777b25f4ad682eceb728fd971a41d347</t>
-  </si>
-  <si>
-    <t>931e53f56d39e56c4e9eeba0f40690bc</t>
-  </si>
-  <si>
-    <t>b5fd738b22237acb4ca26f0efcd31498</t>
-  </si>
-  <si>
-    <t>091f82899487e43dad73661aab2b4292</t>
-  </si>
-  <si>
-    <t>3e33bdb77c9b288fb9a755fec0b2f63f</t>
-  </si>
-  <si>
-    <t>5b34c332c8d6dab7631de0a89d5276d1</t>
-  </si>
-  <si>
-    <t>83973ab9215ea96b273db8a3cc6a0cbe</t>
-  </si>
-  <si>
-    <t>eb03d756b00415d71c70bb40a13b6e49</t>
-  </si>
-  <si>
-    <t>d3ecf5ed139d21bb74b4829b3910f089</t>
-  </si>
-  <si>
-    <t>["2728ba8c49a5d85369ac4c22b3ffc5d0", "e9fa82bfd7ffe66b4df98f97ddd7f08f"]</t>
-  </si>
-  <si>
-    <t>["2728ba8c49a5d85369ac4c22b3ffc5d0"]</t>
-  </si>
-  <si>
-    <t>["84b7464a40b328049acddfc84d1715d2"]</t>
-  </si>
-  <si>
-    <t>["Windows"]</t>
-  </si>
-  <si>
-    <t>["Windows Sysmon"]</t>
-  </si>
-  <si>
-    <t>(device_ip IN ['10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.235/32', '10.131.67.218/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.184.50/32', '10.241.64.98/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/32', '10.241.96.40/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/32', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32'] AND logpoint_name="LP_INDEX") OR (device_ip !=* AND logpoint_name="LP_SEARCH")</t>
-  </si>
-  <si>
-    <t>(device_ip IN ['10.131.64.14/32', '10.131.64.22/32', '10.131.64.26/32', '10.131.64.30/32', '10.131.64.44/32', '10.131.64.66/32', '10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.64.212/32', '10.131.65.13/32', '10.131.65.73/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.168/32', '10.131.65.189/32', '10.131.65.191/32', '10.131.65.196/32', '10.131.65.235/32', '10.131.66.93/32', '10.131.67.25/32', '10.131.67.142/31', '10.131.67.144/31', '10.131.67.151/32', '10.131.67.152/32', '10.131.67.218/31', '10.131.178.58/31', '10.131.182.18/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.182.93/32', '10.131.182.94/32', '10.131.184.30/32', '10.131.184.50/32', '10.131.184.57/32', '10.131.202.24/32', '10.131.202.32/32', '10.131.208.54/32', '10.131.208.62/31', '10.131.210.9/32', '10.131.210.10/31', '10.131.210.12/32', '10.195.0.19/32', '10.195.0.20/30', '10.195.0.24/32', '10.196.0.19/32', '10.196.0.20/30', '10.196.0.24/32', '10.201.10.10/32', '10.201.10.30/32', '10.201.10.39/32', '10.201.10.53/32', '10.201.10.54/32', '10.201.10.75/32', '10.201.10.81/32', '10.201.10.82/32', '10.204.10.2/31', '10.241.64.20/32', '10.241.64.98/31', '10.241.64.114/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/31', '10.241.96.40/32', '10.241.96.42/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.128.30/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.136.1/32', '10.241.136.2/31', '10.241.136.4/31', '10.241.136.6/32', '10.241.136.48/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.18/32', '10.241.160.22/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '126.12.102.134/31', '127.0.0.1/32', '192.168.2.6/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.60.4/31', '192.168.60.7/32', '192.168.60.8/32', '192.168.60.11/32', '192.168.60.12/32', '192.168.61.4/32', '192.168.61.6/31', '192.168.100.75/32', '192.168.100.76/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/31', '192.168.103.84/32', '192.168.103.110/31', '192.168.103.112/32', '192.168.103.136/31', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.31/32', '192.168.104.32/32', '192.168.104.61/32', '192.168.104.62/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.104.133/32', '192.168.104.134/32', '192.168.104.139/32', '192.168.104.140/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.105.146/31', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/30', '192.168.106.16/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.27/32', '192.168.168.28/32', '192.168.168.33/32', '192.168.168.34/32', '192.168.168.38/31', '192.168.168.105/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.120/31', '192.168.168.123/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.168.217/32', '192.168.168.218/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32', '::1/128'] AND logpoint_name="LP_INDEX") OR (device_ip IN ['127.0.0.1/32', '::1/128'] AND logpoint_name="LP_SEARCH")</t>
-  </si>
-  <si>
-    <t>(device_ip IN ["10.131.64.14/32", "10.131.64.22/32", "10.131.64.26/32", "10.131.64.30/32", "10.131.64.44/32", "10.131.64.66/32", "10.131.64.96/32", "10.131.64.126/32", "10.131.64.149/32", "10.131.64.151/32", "10.131.64.212/32", "10.131.65.13/32", "10.131.65.58/32", "10.131.65.73/32", "10.131.65.97/32", "10.131.65.167/32", "10.131.65.168/32", "10.131.65.189/32", "10.131.65.191/32", "10.131.65.196/32", "10.131.65.235/32", "10.131.66.93/32", "10.131.67.25/32", "10.131.67.142/31", "10.131.67.144/31", "10.131.67.151/32", "10.131.67.152/32", "10.131.67.218/31", "10.131.178.58/31", "10.131.182.18/31", "10.131.182.26/32", "10.131.182.65/32", "10.131.182.66/31", "10.131.182.68/31", "10.131.182.87/32", "10.131.182.88/32", "10.131.182.90/31", "10.131.182.93/32", "10.131.182.94/32", "10.131.184.30/32", "10.131.184.50/32", "10.131.184.55/32", "10.131.184.56/31", "10.131.202.24/32", "10.131.202.28/32", "10.131.202.32/32", "10.131.208.50/32", "10.131.208.54/32", "10.131.208.62/31", "10.131.210.9/32", "10.131.210.10/31", "10.131.210.12/32", "10.195.0.19/32", "10.195.0.20/30", "10.195.0.24/32", "10.196.0.19/32", "10.196.0.20/30", "10.196.0.24/32", "10.201.10.10/32", "10.201.10.30/32", "10.201.10.39/32", "10.201.10.53/32", "10.201.10.54/32", "10.201.10.75/32", "10.201.10.81/32", "10.201.10.82/32", "10.204.10.2/31", "10.241.64.20/32", "10.241.64.98/31", "10.241.64.114/31", "10.241.64.130/31", "10.241.64.210/31", "10.241.64.213/32", "10.241.64.214/32", "10.241.64.231/32", "10.241.64.232/31", "10.241.64.234/32", "10.241.88.2/31", "10.241.96.40/32", "10.241.96.42/32", "10.241.96.63/32", "10.241.96.64/32", "10.241.96.66/31", "10.241.96.72/32", "10.241.128.30/32", "10.241.129.5/32", "10.241.129.6/32", "10.241.129.21/32", "10.241.129.22/32", "10.241.129.39/32", "10.241.129.40/32", "10.241.129.68/31", "10.241.129.98/31", "10.241.129.114/31", "10.241.136.1/32", "10.241.136.2/31", "10.241.136.4/31", "10.241.136.6/32", "10.241.136.48/31", "10.241.160.6/32", "10.241.160.12/32", "10.241.160.18/32", "10.241.160.22/32", "10.241.160.79/32", "10.241.160.80/31", "10.241.160.82/32", "10.241.160.99/32", "126.12.102.134/31", "127.0.0.1/32", "192.168.2.6/32", "192.168.2.15/32", "192.168.2.41/32", "192.168.2.42/31", "192.168.2.65/32", "192.168.2.68/31", "192.168.2.71/32", "192.168.2.72/32", "192.168.2.89/32", "192.168.2.91/32", "192.168.2.92/32", "192.168.4.6/31", "192.168.4.13/32", "192.168.4.14/32", "192.168.4.16/32", "192.168.4.26/32", "192.168.60.4/31", "192.168.60.7/32", "192.168.60.8/32", "192.168.60.11/32", "192.168.60.12/32", "192.168.61.4/32", "192.168.61.6/31", "192.168.100.75/32", "192.168.100.76/32", "192.168.103.9/32", "192.168.103.10/32", "192.168.103.26/31", "192.168.103.28/31", "192.168.103.39/32", "192.168.103.40/32", "192.168.103.46/31", "192.168.103.49/32", "192.168.103.50/32", "192.168.103.81/32", "192.168.103.82/31", "192.168.103.84/32", "192.168.103.110/31", "192.168.103.112/32", "192.168.103.136/31", "192.168.104.19/32", "192.168.104.20/31", "192.168.104.22/32", "192.168.104.31/32", "192.168.104.32/32", "192.168.104.61/32", "192.168.104.62/32", "192.168.104.81/32", "192.168.104.82/31", "192.168.104.84/32", "192.168.104.133/32", "192.168.104.134/32", "192.168.104.139/32", "192.168.104.140/32", "192.168.105.10/31", "192.168.105.12/31", "192.168.105.17/32", "192.168.105.18/32", "192.168.105.146/31", "192.168.106.8/31", "192.168.106.11/32", "192.168.106.12/30", "192.168.106.16/32", "192.168.145.4/31", "192.168.145.8/31", "192.168.148.2/32", "192.168.148.4/32", "192.168.168.27/32", "192.168.168.28/32", "192.168.168.33/32", "192.168.168.34/32", "192.168.168.38/31", "192.168.168.105/32", "192.168.168.107/32", "192.168.168.108/32", "192.168.168.111/32", "192.168.168.112/31", "192.168.168.114/32", "192.168.168.120/31", "192.168.168.123/32", "192.168.168.211/32", "192.168.168.212/32", "192.168.168.217/32", "192.168.168.218/32", "192.168.204.2/31", "192.168.204.5/32", "192.168.204.6/32", "192.168.204.33/32", "192.168.204.34/32", "192.168.204.37/32", "192.168.205.2/32", "192.168.205.4/32", "192.168.205.11/32", "192.168.205.12/32", "::1/128"] AND logpoint_name="LP_INDEX") OR (device_ip IN ["127.0.0.1/32", "::1/128"] AND logpoint_name="LP_SEARCH")</t>
-  </si>
-  <si>
-    <t>(device_ip IN ['10.131.64.14/32', '10.131.64.22/32', '10.131.64.26/32', '10.131.64.30/32', '10.131.64.44/32', '10.131.64.66/32', '10.131.64.96/32', '10.131.64.126/32', '10.131.64.149/32', '10.131.64.151/32', '10.131.64.212/32', '10.131.65.13/32', '10.131.65.73/32', '10.131.65.97/32', '10.131.65.167/32', '10.131.65.168/32', '10.131.65.189/32', '10.131.65.191/32', '10.131.65.196/32', '10.131.65.235/32', '10.131.66.93/32', '10.131.67.25/32', '10.131.67.142/31', '10.131.67.144/31', '10.131.67.151/32', '10.131.67.152/32', '10.131.67.218/31', '10.131.178.58/31', '10.131.182.18/31', '10.131.182.26/32', '10.131.182.65/32', '10.131.182.66/31', '10.131.182.68/31', '10.131.182.87/32', '10.131.182.88/32', '10.131.182.90/31', '10.131.182.93/32', '10.131.182.94/32', '10.131.184.30/32', '10.131.184.50/32', '10.131.184.55/32', '10.131.184.56/31', '10.131.202.24/32', '10.131.202.32/32', '10.131.208.54/32', '10.131.208.62/31', '10.131.210.9/32', '10.131.210.10/31', '10.131.210.12/32', '10.195.0.19/32', '10.195.0.20/30', '10.195.0.24/32', '10.196.0.19/32', '10.196.0.20/30', '10.196.0.24/32', '10.201.10.10/32', '10.201.10.30/32', '10.201.10.39/32', '10.201.10.53/32', '10.201.10.54/32', '10.201.10.75/32', '10.201.10.81/32', '10.201.10.82/32', '10.204.10.2/31', '10.241.64.20/32', '10.241.64.98/31', '10.241.64.114/31', '10.241.64.130/31', '10.241.64.210/31', '10.241.64.213/32', '10.241.64.214/32', '10.241.64.231/32', '10.241.64.232/31', '10.241.64.234/32', '10.241.88.2/31', '10.241.96.40/32', '10.241.96.42/32', '10.241.96.63/32', '10.241.96.64/32', '10.241.96.66/31', '10.241.96.72/32', '10.241.128.30/32', '10.241.129.5/32', '10.241.129.6/32', '10.241.129.21/32', '10.241.129.22/32', '10.241.129.39/32', '10.241.129.40/32', '10.241.129.68/31', '10.241.129.98/31', '10.241.129.114/31', '10.241.136.1/32', '10.241.136.2/31', '10.241.136.4/31', '10.241.136.6/32', '10.241.136.48/31', '10.241.160.6/32', '10.241.160.12/32', '10.241.160.18/32', '10.241.160.22/32', '10.241.160.79/32', '10.241.160.80/31', '10.241.160.82/32', '10.241.160.99/32', '126.12.102.134/31', '127.0.0.1/32', '192.168.2.6/32', '192.168.2.15/32', '192.168.2.41/32', '192.168.2.42/31', '192.168.2.65/32', '192.168.2.68/31', '192.168.2.71/32', '192.168.2.72/32', '192.168.2.89/32', '192.168.2.91/32', '192.168.2.92/32', '192.168.4.6/31', '192.168.4.13/32', '192.168.4.14/32', '192.168.4.16/32', '192.168.4.26/32', '192.168.60.4/31', '192.168.60.7/32', '192.168.60.8/32', '192.168.60.11/32', '192.168.60.12/32', '192.168.61.4/32', '192.168.61.6/31', '192.168.100.75/32', '192.168.100.76/32', '192.168.103.9/32', '192.168.103.10/32', '192.168.103.26/31', '192.168.103.28/31', '192.168.103.39/32', '192.168.103.40/32', '192.168.103.46/31', '192.168.103.49/32', '192.168.103.50/32', '192.168.103.81/32', '192.168.103.82/31', '192.168.103.84/32', '192.168.103.110/31', '192.168.103.112/32', '192.168.103.136/31', '192.168.104.19/32', '192.168.104.20/31', '192.168.104.22/32', '192.168.104.31/32', '192.168.104.32/32', '192.168.104.61/32', '192.168.104.62/32', '192.168.104.81/32', '192.168.104.82/31', '192.168.104.84/32', '192.168.104.133/32', '192.168.104.134/32', '192.168.104.139/32', '192.168.104.140/32', '192.168.105.10/31', '192.168.105.12/31', '192.168.105.17/32', '192.168.105.18/32', '192.168.105.146/31', '192.168.106.8/31', '192.168.106.11/32', '192.168.106.12/30', '192.168.106.16/32', '192.168.145.4/31', '192.168.145.8/31', '192.168.148.2/32', '192.168.148.4/32', '192.168.168.27/32', '192.168.168.28/32', '192.168.168.33/32', '192.168.168.34/32', '192.168.168.38/31', '192.168.168.105/32', '192.168.168.107/32', '192.168.168.108/32', '192.168.168.111/32', '192.168.168.112/31', '192.168.168.114/32', '192.168.168.120/31', '192.168.168.123/32', '192.168.168.211/32', '192.168.168.212/32', '192.168.168.217/32', '192.168.168.218/32', '192.168.204.2/31', '192.168.204.5/32', '192.168.204.6/32', '192.168.204.33/32', '192.168.204.34/32', '192.168.204.37/32', '192.168.205.2/32', '192.168.205.4/32', '192.168.205.11/32', '192.168.205.12/32', '::1/128'] AND logpoint_name="LP_INDEX") OR (device_ip IN ['127.0.0.1/32', '::1/128'] AND logpoint_name="LP_SEARCH")</t>
-  </si>
-  <si>
-    <t>(device_ip IN ["10.130.4.85/32", "10.130.5.19/32", "10.131.64.26/31", "10.131.64.44/32", "10.131.64.69/32", "10.131.64.81/32", "10.131.64.222/31", "10.131.64.224/32", "10.131.65.58/32", "10.131.65.168/32", "10.131.65.189/32", "10.131.65.191/32", "10.131.66.93/32", "10.131.66.220/32", "10.131.67.25/32", "10.131.67.142/31", "10.131.67.144/31", "10.131.67.151/32", "10.131.67.152/32", "10.131.67.218/31", "10.131.146.11/32", "10.131.178.58/31", "10.131.178.108/32", "10.131.182.19/32", "10.131.182.26/32", "10.131.182.64/30", "10.131.182.68/31", "10.131.182.87/32", "10.131.182.88/32", "10.131.182.90/31", "10.131.182.93/32", "10.131.182.94/32", "10.131.184.30/32", "10.131.184.49/32", "10.131.184.50/32", "10.131.184.55/32", "10.131.184.56/31", "10.131.198.50/32", "10.131.202.24/32", "10.131.202.28/32", "10.131.202.32/32", "10.131.208.41/32", "10.131.208.50/32", "10.131.208.53/32", "10.131.208.54/32", "10.131.208.62/31", "10.131.208.79/32", "10.131.208.85/32", "10.131.210.9/32", "10.131.210.10/31", "10.131.210.12/32", "10.195.0.19/32", "10.195.0.20/30", "10.195.0.24/32", "10.196.0.19/32", "10.196.0.20/30", "10.196.0.24/32", "10.201.10.10/32", "10.201.10.30/32", "10.201.10.39/32", "10.201.10.53/32", "10.201.10.54/32", "10.201.10.75/32", "10.201.10.81/32", "10.201.10.82/32", "10.204.10.2/31", "10.241.64.10/32", "10.241.64.20/32", "10.241.64.98/31", "10.241.64.114/31", "10.241.64.130/31", "10.241.64.210/31", "10.241.64.213/32", "10.241.64.214/32", "10.241.64.231/32", "10.241.64.232/31", "10.241.64.234/32", "10.241.88.2/31", "10.241.96.18/32", "10.241.96.40/32", "10.241.96.42/32", "10.241.96.63/32", "10.241.96.64/32", "10.241.96.66/31", "10.241.96.72/32", "10.241.128.16/32", "10.241.128.26/31", "10.241.128.30/32", "10.241.129.5/32", "10.241.129.6/32", "10.241.129.21/32", "10.241.129.22/32", "10.241.129.39/32", "10.241.129.40/32", "10.241.129.68/31", "10.241.129.98/31", "10.241.129.114/31", "10.241.136.1/32", "10.241.136.2/31", "10.241.136.4/31", "10.241.136.6/32", "10.241.136.48/31", "10.241.160.6/32", "10.241.160.12/32", "10.241.160.18/32", "10.241.160.22/32", "10.241.160.47/32", "10.241.160.79/32", "10.241.160.80/31", "10.241.160.82/32", "10.241.160.99/32", "126.12.102.134/31", "127.0.0.1/32", "192.168.2.6/32", "192.168.2.15/32", "192.168.2.71/32", "192.168.2.72/32", "192.168.2.89/32", "192.168.2.91/32", "192.168.2.92/32", "192.168.4.13/32", "192.168.4.14/32", "192.168.4.26/32", "192.168.60.4/31", "192.168.60.7/32", "192.168.60.8/32", "192.168.60.11/32", "192.168.60.12/32", "192.168.61.4/32", "192.168.61.6/31", "192.168.100.75/32", "192.168.100.76/32", "192.168.103.9/32", "192.168.103.10/32", "192.168.103.26/31", "192.168.103.28/31", "192.168.103.39/32", "192.168.103.40/32", "192.168.103.46/31", "192.168.103.49/32", "192.168.103.50/32", "192.168.103.81/32", "192.168.103.82/31", "192.168.103.84/32", "192.168.103.110/31", "192.168.103.112/32", "192.168.103.136/31", "192.168.104.19/32", "192.168.104.20/32", "192.168.104.31/32", "192.168.104.32/32", "192.168.104.61/32", "192.168.104.62/32", "192.168.104.83/32", "192.168.104.84/32", "192.168.104.133/32", "192.168.104.134/32", "192.168.104.139/32", "192.168.104.140/32", "192.168.105.12/31", "192.168.105.146/31", "192.168.106.8/31", "192.168.106.11/32", "192.168.106.12/30", "192.168.106.16/32", "192.168.145.4/31", "192.168.145.8/31", "192.168.148.2/32", "192.168.148.4/32", "192.168.168.27/32", "192.168.168.28/32", "192.168.168.33/32", "192.168.168.34/32", "192.168.168.105/32", "192.168.168.107/32", "192.168.168.108/32", "192.168.168.120/31", "192.168.168.123/32", "192.168.168.211/32", "192.168.168.212/32", "192.168.168.217/32", "192.168.168.218/32", "192.168.204.5/32", "192.168.204.6/32", "192.168.204.37/32", "192.168.205.11/32", "192.168.205.12/32", "::1/128"] AND logpoint_name="LP_INDEX") OR (device_ip IN ["127.0.0.1/32", "::1/128"] AND logpoint_name="LP_SEARCH")</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>["environnement", "source_module", "duration"]</t>
-  </si>
-  <si>
-    <t>["group", "event_id"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "category", "sub_category", "message_id"]</t>
-  </si>
-  <si>
-    <t>["event_id", "user"]</t>
-  </si>
-  <si>
-    <t>["collected_at"]</t>
-  </si>
-  <si>
-    <t>["object", "action"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "label", "object", "days_remaining"]</t>
-  </si>
-  <si>
-    <t>["destination_port"]</t>
-  </si>
-  <si>
-    <t>["event_id", "event_source"]</t>
-  </si>
-  <si>
-    <t>["label", "user"]</t>
-  </si>
-  <si>
-    <t>["action"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "received_datasize", "sent_datasize"]</t>
-  </si>
-  <si>
-    <t>["target_user", "event_id", "action"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "event_id", "user"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "event_id", "image", "command", "user"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "event_id", "command_name", "command", "user"]</t>
-  </si>
-  <si>
-    <t>["norm_id", "event_id", "commandline", "command", "user"]</t>
-  </si>
-  <si>
-    <t>["device_name"]</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <t>"environnement"="EXP"  ("source_module"="iis_log_in") duration &gt; 30000</t>
-  </si>
-  <si>
-    <t>group IN MATMUT_LST_GRP_PRIVILEGES_T1 -event_id="4737" AND -event_id="4735" AND -event_id="4755" AND -event_id="4745" AND -event_id="4750" AND -event_id="4760"</t>
-  </si>
-  <si>
-    <t>norm_id=Forti* category=event sub_category=vpn message_id=39426</t>
-  </si>
-  <si>
-    <t>event_id="4776" NOT user IN MATMUT_LST_CPT_SEUIL_NTLM_ELEVE</t>
-  </si>
-  <si>
-    <t>collected_at="LP_COLLECTOR03"</t>
-  </si>
-  <si>
-    <t>"object"="Certificate" "action"="expired"</t>
-  </si>
-  <si>
-    <t>destination_port=25</t>
-  </si>
-  <si>
-    <t>group IN MATMUT_LST_GRP_PRIVILEGES_T2 -event_id="4737" AND -event_id="4735" AND -event_id="4755" AND -event_id="4745" AND -event_id="4750" AND -event_id="4760"</t>
-  </si>
-  <si>
-    <t>event_id="1102" event_source="Microsoft-Windows-Security-Auditing"</t>
-  </si>
-  <si>
-    <t>collected_at="LP_COLLECTOR01"</t>
-  </si>
-  <si>
-    <t>label="kerberos" user="poulain.amelie"</t>
-  </si>
-  <si>
-    <t>norm_id=Forti* (received_datasize=* OR sent_datasize=*)</t>
-  </si>
-  <si>
-    <t>event_id="4740""user"="poulain.amelie"</t>
-  </si>
-  <si>
-    <t>"target_user" IN MATMUT_LST_GRP_PRIVILEGES_T0 "event_id"="4648" action="*"</t>
-  </si>
-  <si>
-    <t>"target_user" IN MATMUT_LST_GRP_PRIVILEGES_T2 "event_id"="4648" action="*"</t>
-  </si>
-  <si>
-    <t>[user="poulain.amelie" source_address=* | process dns(source_address) as Hostname | search -Hostname="srv*" -Hostname="sci*" -Hostname="zrv*" -Hostname="zci*" -Hostname="localhost."| SEARCH -not_resolved_host IN MATMUT_LST_SRV_ALLOWPOULAINT1 | norm on Hostname &lt;machine:"([A-Za-z]{2}[0-9]{5}|[bB]{1}[0-9]{6})"&gt; | search machine="*"] as s1   join [workstation="*"]  as s2  on s2.workstation = s1.machine</t>
-  </si>
-  <si>
-    <t>label="kerberos" -user="*$" NOT user IN MATMUT_LST_CPT_SEUIL_KERBEROS_ELEVE</t>
-  </si>
-  <si>
-    <t>norm_id=WinServer event_id=4103 (command_name="get-childitem*" OR command="get-childitem*") -user IN EXCLUDED_USERS</t>
-  </si>
-  <si>
-    <t>norm_id=WinServer event_id=4688 (commandline = "*tree*" OR command = "*tree*") -user IN EXCLUDED_USERS</t>
-  </si>
-  <si>
-    <t>device_name="SRVPDC0*" OR device_name="SCIPDC0*"</t>
-  </si>
-  <si>
-    <t>((environnement:EXP AND (source_module:iis_log_in)) AND _num_duration:{30000 TO *})</t>
-  </si>
-  <si>
-    <t>(((((((group:t1\-* OR group:Admins_Vmware OR group:a_mettre_a_jour OR group:Admins\ Etudes OR group:Serveurs\-Exploitation) AND ((-(event_id:4737 OR _num_event_id:[4737 TO 4737])))) AND ((-(event_id:4735 OR _num_event_id:[4735 TO 4735])))) AND ((-(event_id:4755 OR _num_event_id:[4755 TO 4755])))) AND ((-(event_id:4745 OR _num_event_id:[4745 TO 4745])))) AND ((-(event_id:4750 OR _num_event_id:[4750 TO 4750])))) AND ((-(event_id:4760 OR _num_event_id:[4760 TO 4760]))))</t>
-  </si>
-  <si>
-    <t>(((norm_id:Forti* AND category:event) AND sub_category:vpn) AND (message_id:39426 OR _num_message_id:[39426 TO 39426]))</t>
-  </si>
-  <si>
-    <t>((event_id:4776 OR _num_event_id:[4776 TO 4776]) AND ((-(user:pool.rce OR user:kerberos.matmutnet OR user:admev))))</t>
-  </si>
-  <si>
-    <t>collected_at:LP_COLLECTOR03</t>
-  </si>
-  <si>
-    <t>(object:Certificate AND action:expired)</t>
-  </si>
-  <si>
-    <t>(((norm_id:LogPoint AND label:Audit) AND object:License\ checker) AND (days_remaining:* OR _num_days_remaining:*))</t>
-  </si>
-  <si>
-    <t>(destination_port:25 OR _num_destination_port:[25 TO 25])</t>
-  </si>
-  <si>
-    <t>(((((((group:t2\-*) AND ((-(event_id:4737 OR _num_event_id:[4737 TO 4737])))) AND ((-(event_id:4735 OR _num_event_id:[4735 TO 4735])))) AND ((-(event_id:4755 OR _num_event_id:[4755 TO 4755])))) AND ((-(event_id:4745 OR _num_event_id:[4745 TO 4745])))) AND ((-(event_id:4750 OR _num_event_id:[4750 TO 4750])))) AND ((-(event_id:4760 OR _num_event_id:[4760 TO 4760]))))</t>
-  </si>
-  <si>
-    <t>((event_id:1102 OR _num_event_id:[1102 TO 1102]) AND event_source:Microsoft\-Windows\-Security\-Auditing)</t>
-  </si>
-  <si>
-    <t>collected_at:LP_COLLECTOR01</t>
-  </si>
-  <si>
-    <t>(label:kerberos AND user:poulain.amelie)</t>
-  </si>
-  <si>
-    <t>action:expire</t>
-  </si>
-  <si>
-    <t>(norm_id:Forti* AND (((received_datasize:* OR _num_received_datasize:*) OR (sent_datasize:* OR _num_sent_datasize:*))))</t>
-  </si>
-  <si>
-    <t>((event_id:4740 OR _num_event_id:[4740 TO 4740]) AND user:poulain.amelie)</t>
-  </si>
-  <si>
-    <t>(((target_user:Administrateurs\ du\ schéma OR target_user:Protected\ Users OR target_user:Opérateurs\ d'impression OR target_user:Opérateurs\ de\ serveur OR target_user:Administrateurs\ de\ l'entreprise OR target_user:Opérateurs\ de\ compte OR target_user:Admins\ du\ domaine OR target_user:t0\-* OR target_user:Administrateurs OR target_user:DnsAdmins OR target_user:Opérateurs\ de\ sauvegarde) AND (event_id:4648 OR _num_event_id:[4648 TO 4648])) AND (action:* OR _num_action:*))</t>
-  </si>
-  <si>
-    <t>(((target_user:t2\-*) AND (event_id:4648 OR _num_event_id:[4648 TO 4648])) AND (action:* OR _num_action:*))</t>
-  </si>
-  <si>
-    <t>((label:kerberos AND ((-user:*$))) AND ((-(user:sasinst OR user:admev OR user:farm.rcerct OR user:farm.rce OR user:farm02.rcedev OR user:farm.rceint OR user:farm01.rcedev))))</t>
-  </si>
-  <si>
-    <t>((norm_id:WinServer AND (event_id:4798 OR _num_event_id:[4798 TO 4798])) AND ((-(user:*$ OR user:\-))))</t>
-  </si>
-  <si>
-    <t>(((norm_id:WindowsSysmon AND (event_id:1 OR _num_event_id:[1 TO 1])) AND (((((image:*\\Bloodhound.exe* OR image:*\\SharpHound.exe*) OR (command:*\ \-CollectionMethod\ All\ * OR command:*.exe\ \-c\ All\ \-d\ * OR command:*Invoke\-Bloodhound* OR command:*Get\-BloodHoundData*)) OR ((command:*\ \-JsonFolder\ * AND command:*\ \-ZipFileName\ *))) OR ((command:*\ DCOnly\ * AND command:*\ \-\-NoSaveCache\ *))))) AND ((-(user:*$ OR user:\-))))</t>
-  </si>
-  <si>
-    <t>(((norm_id:WinServer AND (event_id:4103 OR _num_event_id:[4103 TO 4103])) AND ((command_name:get\-childitem* OR command:get\-childitem*))) AND ((-(user:*$ OR user:\-))))</t>
-  </si>
-  <si>
-    <t>(((norm_id:WinServer AND (event_id:4688 OR _num_event_id:[4688 TO 4688])) AND ((commandline:*tree* OR command:*tree*))) AND ((-(user:*$ OR user:\-))))</t>
-  </si>
-  <si>
-    <t>(device_name:SRVPDC0* OR device_name:SCIPDC0*)</t>
-  </si>
-  <si>
-    <t>["count()"]</t>
-  </si>
-  <si>
-    <t>["login_count"]</t>
-  </si>
-  <si>
-    <t>["Event"]</t>
-  </si>
-  <si>
-    <t>["DC"]</t>
-  </si>
-  <si>
-    <t>["resourceNameSmall"]</t>
-  </si>
-  <si>
-    <t>["Modificateur", "action", "Utilisateur", "group", "DomainController", "log_ts"]</t>
-  </si>
-  <si>
-    <t>["log_ts", "user", "action", "reason", "message"]</t>
-  </si>
-  <si>
-    <t>["user"]</t>
-  </si>
-  <si>
-    <t>["certificate"]</t>
-  </si>
-  <si>
-    <t>["source_address"]</t>
-  </si>
-  <si>
-    <t>["''Modificateur''", "action", "Utilisateur", "group", "DomainController", "log_ts"]</t>
-  </si>
-  <si>
-    <t>["log_ts"]</t>
-  </si>
-  <si>
-    <t>["user", "workstation", "log_ts"]</t>
-  </si>
-  <si>
-    <t>["Utilisateur_source", "RunAs", "Utilisateur_cible", "DomainController", "log_ts"]</t>
-  </si>
-  <si>
-    <t>["time", "src_user", "src_adr", "src_host", "evt", "message", "dst_user"]</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;style type="text/css"&gt;
@@ -3035,6 +3172,252 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3043,3731 +3426,3731 @@
   <sheetData>
     <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:59">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J2" t="s">
-        <v>453</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>454</v>
-      </c>
       <c r="P2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="Q2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="R2" t="s">
+        <v>489</v>
+      </c>
+      <c r="S2" t="s">
+        <v>490</v>
+      </c>
+      <c r="T2" t="s">
+        <v>494</v>
+      </c>
+      <c r="U2" t="s">
+        <v>412</v>
+      </c>
+      <c r="V2" t="s">
+        <v>447</v>
+      </c>
+      <c r="W2" t="s">
+        <v>521</v>
+      </c>
+      <c r="X2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>100</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7200</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>463</v>
       </c>
-      <c r="S2" t="s">
-        <v>464</v>
-      </c>
-      <c r="T2" t="s">
-        <v>468</v>
-      </c>
-      <c r="U2" t="s">
-        <v>369</v>
-      </c>
-      <c r="V2" t="s">
-        <v>470</v>
-      </c>
-      <c r="W2" t="s">
-        <v>453</v>
-      </c>
-      <c r="X2" t="s">
-        <v>500</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>599</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>603</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>5</v>
-      </c>
-      <c r="AW2">
-        <v>100</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>7200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J3" t="s">
-        <v>453</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>455</v>
-      </c>
-      <c r="P3" t="s">
-        <v>453</v>
-      </c>
       <c r="Q3" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="R3" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S3" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T3" t="s">
         <v>259</v>
       </c>
       <c r="U3" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="V3" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="W3" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="X3" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="Y3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>463</v>
       </c>
       <c r="AE3" t="s">
-        <v>406</v>
+        <v>553</v>
       </c>
       <c r="AF3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>413</v>
       </c>
       <c r="AL3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>1</v>
+        <v>559</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>576</v>
       </c>
       <c r="AO3" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="AP3" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="AQ3" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="AR3" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS3" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>604</v>
+        <v>625</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
         <v>100</v>
       </c>
+      <c r="AW3" t="s">
+        <v>636</v>
+      </c>
       <c r="AX3" t="b">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC3" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="BG3" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>7200</v>
       </c>
-      <c r="F4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>456</v>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q4" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R4" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S4" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T4" t="s">
         <v>259</v>
       </c>
       <c r="U4" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="V4" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="W4" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="X4" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="Y4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>464</v>
       </c>
       <c r="AE4" t="s">
-        <v>407</v>
+        <v>553</v>
       </c>
       <c r="AF4" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>414</v>
       </c>
       <c r="AL4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>539</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
+        <v>560</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>576</v>
       </c>
       <c r="AO4" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="AP4" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="AQ4" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="AR4" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS4" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>605</v>
+        <v>626</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
         <v>100</v>
       </c>
+      <c r="AW4" t="s">
+        <v>637</v>
+      </c>
       <c r="AX4" t="b">
         <v>0</v>
       </c>
       <c r="BG4" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:59">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5">
         <v>86400</v>
       </c>
-      <c r="F5" t="s">
-        <v>408</v>
-      </c>
-      <c r="G5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J5" t="s">
-        <v>453</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>456</v>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="Q5" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R5" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S5" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T5" t="s">
         <v>259</v>
       </c>
       <c r="U5" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="V5" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="W5" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="X5" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="Y5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>465</v>
       </c>
       <c r="AE5" t="s">
-        <v>408</v>
+        <v>553</v>
       </c>
       <c r="AF5" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>394</v>
+        <v>557</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
+      <c r="AK5" t="s">
+        <v>415</v>
       </c>
       <c r="AL5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>540</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
+        <v>561</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>576</v>
       </c>
       <c r="AO5" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="AP5" t="s">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="AQ5" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="AR5" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="AS5" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>606</v>
+        <v>627</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
         <v>100</v>
       </c>
+      <c r="AW5" t="s">
+        <v>638</v>
+      </c>
       <c r="AX5" t="b">
         <v>0</v>
       </c>
       <c r="BB5" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC5" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="BG5" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:59">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>3600</v>
       </c>
-      <c r="F6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" t="s">
-        <v>433</v>
-      </c>
-      <c r="J6" t="s">
-        <v>453</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>454</v>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="Q6" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R6" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S6" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="T6" t="s">
         <v>259</v>
       </c>
       <c r="U6" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="V6" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="W6" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="X6" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="Y6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>466</v>
       </c>
       <c r="AE6" t="s">
-        <v>409</v>
+        <v>554</v>
       </c>
       <c r="AF6" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>416</v>
       </c>
       <c r="AL6" t="s">
-        <v>373</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>576</v>
       </c>
       <c r="AO6" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="AP6" t="s">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="AQ6" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="AR6" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS6" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>541</v>
+        <v>562</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
         <v>100</v>
       </c>
+      <c r="AW6" t="s">
+        <v>639</v>
+      </c>
       <c r="AX6" t="b">
         <v>0</v>
       </c>
       <c r="BB6" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG6" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:59">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>3600</v>
       </c>
-      <c r="F7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G7" t="s">
-        <v>434</v>
-      </c>
-      <c r="J7" t="s">
-        <v>453</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>456</v>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="Q7" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T7" t="s">
         <v>259</v>
       </c>
       <c r="U7" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="V7" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="W7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="X7" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="Y7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>100</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>663</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="A8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>452</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="P8" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>488</v>
+      </c>
+      <c r="R8" t="s">
+        <v>489</v>
+      </c>
+      <c r="S8" t="s">
+        <v>492</v>
+      </c>
+      <c r="T8" t="s">
+        <v>495</v>
+      </c>
+      <c r="U8" t="s">
+        <v>418</v>
+      </c>
+      <c r="V8" t="s">
+        <v>501</v>
+      </c>
+      <c r="W8" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>564</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>603</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>25</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>657</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="A9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>453</v>
       </c>
-      <c r="Z7" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>410</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>536</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>561</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>581</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>599</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>607</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>100</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>620</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8">
+      <c r="M9">
         <v>300</v>
       </c>
-      <c r="F8" t="s">
-        <v>411</v>
-      </c>
-      <c r="G8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I8" t="s">
-        <v>451</v>
-      </c>
-      <c r="J8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>456</v>
-      </c>
-      <c r="P8" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>460</v>
-      </c>
-      <c r="R8" t="s">
-        <v>463</v>
-      </c>
-      <c r="S8" t="s">
-        <v>466</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="P9" t="s">
         <v>469</v>
       </c>
-      <c r="U8" t="s">
-        <v>375</v>
-      </c>
-      <c r="V8" t="s">
-        <v>472</v>
-      </c>
-      <c r="W8" t="s">
-        <v>480</v>
-      </c>
-      <c r="X8" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>411</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>395</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>543</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>411</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>582</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>5</v>
-      </c>
-      <c r="AW8">
-        <v>25</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>614</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9" t="s">
-        <v>412</v>
-      </c>
-      <c r="G9" t="s">
-        <v>436</v>
-      </c>
-      <c r="I9" t="s">
-        <v>452</v>
-      </c>
-      <c r="J9" t="s">
-        <v>453</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>454</v>
-      </c>
-      <c r="P9" t="s">
-        <v>453</v>
-      </c>
       <c r="Q9" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="R9" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S9" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T9" t="s">
         <v>259</v>
       </c>
       <c r="U9" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="V9" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="W9" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="X9" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="Y9" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH9" t="s">
         <v>453</v>
       </c>
-      <c r="Z9" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>396</v>
+      <c r="AI9">
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
+      <c r="AK9" t="s">
+        <v>419</v>
       </c>
       <c r="AL9" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>544</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>1</v>
+        <v>565</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>576</v>
       </c>
       <c r="AO9" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="AP9" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="AQ9" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="AR9" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="AS9" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>608</v>
+        <v>629</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV9">
-        <v>5</v>
-      </c>
-      <c r="AW9">
         <v>100</v>
       </c>
+      <c r="AW9" t="s">
+        <v>642</v>
+      </c>
       <c r="AX9" t="b">
         <v>0</v>
       </c>
       <c r="AY9" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="BB9" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG9" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:59">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>7200</v>
       </c>
-      <c r="F10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G10" t="s">
-        <v>437</v>
-      </c>
-      <c r="J10" t="s">
-        <v>453</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>454</v>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="Q10" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="R10" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S10" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T10" t="s">
         <v>259</v>
       </c>
       <c r="U10" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="V10" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="W10" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="X10" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="Y10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z10" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>470</v>
       </c>
       <c r="AE10" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="AF10" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>420</v>
       </c>
       <c r="AL10" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>538</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
+        <v>559</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>576</v>
       </c>
       <c r="AO10" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="AP10" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="AQ10" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="AR10" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS10" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>609</v>
+        <v>630</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
         <v>100</v>
       </c>
+      <c r="AW10" t="s">
+        <v>643</v>
+      </c>
       <c r="AX10" t="b">
         <v>0</v>
       </c>
       <c r="BB10" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC10" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="BG10" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:59">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>86400</v>
       </c>
-      <c r="F11" t="s">
-        <v>414</v>
-      </c>
-      <c r="G11" t="s">
-        <v>438</v>
-      </c>
-      <c r="J11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>455</v>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q11" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="R11" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S11" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T11" t="s">
         <v>259</v>
       </c>
       <c r="U11" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="V11" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="W11" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="X11" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="Y11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z11" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>471</v>
       </c>
       <c r="AE11" t="s">
-        <v>414</v>
+        <v>553</v>
       </c>
       <c r="AF11" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11">
-        <v>0</v>
+      <c r="AK11" t="s">
+        <v>421</v>
       </c>
       <c r="AL11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>1</v>
+        <v>566</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>576</v>
       </c>
       <c r="AO11" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="AP11" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="AQ11" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="AR11" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS11" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>610</v>
+        <v>631</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
         <v>100</v>
       </c>
+      <c r="AW11" t="s">
+        <v>644</v>
+      </c>
       <c r="AX11" t="b">
         <v>0</v>
       </c>
       <c r="BB11" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG11" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:59">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>86400</v>
       </c>
-      <c r="F12" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" t="s">
-        <v>439</v>
-      </c>
-      <c r="J12" t="s">
-        <v>453</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>455</v>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q12" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="R12" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S12" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T12" t="s">
         <v>259</v>
       </c>
       <c r="U12" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="V12" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="W12" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="X12" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="Y12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z12" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>471</v>
       </c>
       <c r="AE12" t="s">
-        <v>414</v>
+        <v>553</v>
       </c>
       <c r="AF12" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
+      <c r="AK12" t="s">
+        <v>422</v>
       </c>
       <c r="AL12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>545</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>1</v>
+        <v>566</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>576</v>
       </c>
       <c r="AO12" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="AP12" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="AQ12" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="AR12" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>610</v>
+        <v>631</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
         <v>100</v>
       </c>
+      <c r="AW12" t="s">
+        <v>645</v>
+      </c>
       <c r="AX12" t="b">
         <v>0</v>
       </c>
       <c r="BB12" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG12" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:59">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>3600</v>
       </c>
-      <c r="F13" t="s">
-        <v>415</v>
-      </c>
-      <c r="G13" t="s">
-        <v>440</v>
-      </c>
-      <c r="J13" t="s">
-        <v>453</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>454</v>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="Q13" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="R13" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S13" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="T13" t="s">
         <v>259</v>
       </c>
       <c r="U13" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="V13" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="W13" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="X13" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="Y13" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z13" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>472</v>
       </c>
       <c r="AE13" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AF13" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>423</v>
       </c>
       <c r="AL13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>541</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>576</v>
       </c>
       <c r="AO13" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="AP13" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="AQ13" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="AR13" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS13" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>541</v>
+        <v>562</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
         <v>100</v>
       </c>
+      <c r="AW13" t="s">
+        <v>646</v>
+      </c>
       <c r="AX13" t="b">
         <v>0</v>
       </c>
       <c r="BB13" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG13" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:59">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>3600</v>
       </c>
-      <c r="F14" t="s">
-        <v>409</v>
-      </c>
-      <c r="G14" t="s">
-        <v>437</v>
-      </c>
-      <c r="J14" t="s">
-        <v>453</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>454</v>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q14" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="R14" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S14" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="T14" t="s">
         <v>259</v>
       </c>
       <c r="U14" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="V14" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="W14" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="X14" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="Y14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z14" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>466</v>
       </c>
       <c r="AE14" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
       <c r="AF14" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>416</v>
       </c>
       <c r="AL14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>541</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>576</v>
       </c>
       <c r="AO14" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="AP14" t="s">
-        <v>560</v>
+        <v>601</v>
       </c>
       <c r="AQ14" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="AR14" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS14" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>541</v>
+        <v>562</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
         <v>100</v>
       </c>
+      <c r="AW14" t="s">
+        <v>643</v>
+      </c>
       <c r="AX14" t="b">
         <v>0</v>
       </c>
       <c r="BB14" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG14" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:59">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>397</v>
-      </c>
-      <c r="E15">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>454</v>
+      </c>
+      <c r="M15">
         <v>86400</v>
       </c>
-      <c r="F15" t="s">
-        <v>416</v>
-      </c>
-      <c r="G15" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>456</v>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="R15" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S15" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T15" t="s">
         <v>259</v>
       </c>
       <c r="U15" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="V15" t="s">
+        <v>508</v>
+      </c>
+      <c r="W15" t="s">
+        <v>534</v>
+      </c>
+      <c r="X15" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>627</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>100</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>663</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="A16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16">
+        <v>49</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3600</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>474</v>
       </c>
-      <c r="W15" t="s">
-        <v>487</v>
-      </c>
-      <c r="X15" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>546</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>566</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>587</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>600</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>606</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>100</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>620</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59">
-      <c r="A16">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>3600</v>
-      </c>
-      <c r="F16" t="s">
-        <v>417</v>
-      </c>
-      <c r="G16" t="s">
-        <v>442</v>
-      </c>
-      <c r="J16" t="s">
-        <v>453</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>456</v>
-      </c>
-      <c r="P16" t="s">
-        <v>457</v>
-      </c>
       <c r="Q16" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="R16" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S16" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T16" t="s">
         <v>259</v>
       </c>
       <c r="U16" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="V16" t="s">
+        <v>509</v>
+      </c>
+      <c r="W16" t="s">
+        <v>535</v>
+      </c>
+      <c r="X16" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>474</v>
       </c>
-      <c r="W16" t="s">
-        <v>488</v>
-      </c>
-      <c r="X16" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
       <c r="AE16" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="AF16" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>425</v>
       </c>
       <c r="AL16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>547</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>1</v>
+        <v>568</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>139</v>
       </c>
       <c r="AO16" t="s">
-        <v>139</v>
+        <v>474</v>
       </c>
       <c r="AP16" t="s">
-        <v>417</v>
+        <v>609</v>
       </c>
       <c r="AQ16" t="s">
-        <v>588</v>
+        <v>447</v>
       </c>
       <c r="AR16" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS16" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
         <v>25</v>
       </c>
+      <c r="AW16" t="s">
+        <v>648</v>
+      </c>
       <c r="AX16" t="b">
         <v>0</v>
       </c>
       <c r="BB16" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BG16" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:59">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E17">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>455</v>
+      </c>
+      <c r="M17">
         <v>300</v>
       </c>
-      <c r="F17" t="s">
-        <v>418</v>
-      </c>
-      <c r="G17" t="s">
-        <v>443</v>
-      </c>
-      <c r="J17" t="s">
-        <v>453</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>455</v>
-      </c>
       <c r="P17" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="R17" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S17" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T17" t="s">
         <v>259</v>
       </c>
       <c r="U17" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="V17" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="W17" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="X17" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="Y17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z17" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>475</v>
       </c>
       <c r="AE17" t="s">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="AF17" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>398</v>
+        <v>557</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
+      <c r="AK17" t="s">
+        <v>426</v>
       </c>
       <c r="AL17" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>548</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>1</v>
+        <v>569</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>576</v>
       </c>
       <c r="AO17" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="AP17" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="AQ17" t="s">
-        <v>589</v>
+        <v>447</v>
       </c>
       <c r="AR17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS17" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV17">
-        <v>5</v>
-      </c>
-      <c r="AW17">
         <v>100</v>
       </c>
+      <c r="AW17" t="s">
+        <v>649</v>
+      </c>
       <c r="AX17" t="b">
         <v>0</v>
       </c>
       <c r="BB17" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BD17">
         <v>5</v>
       </c>
       <c r="BG17" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:59">
-      <c r="A18">
+      <c r="A18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>384</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>900</v>
       </c>
-      <c r="F18" t="s">
-        <v>419</v>
-      </c>
-      <c r="G18" t="s">
-        <v>444</v>
-      </c>
-      <c r="J18" t="s">
-        <v>453</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>455</v>
-      </c>
       <c r="P18" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="Q18" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="R18" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S18" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T18" t="s">
         <v>259</v>
       </c>
       <c r="U18" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="V18" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="W18" t="s">
+        <v>537</v>
+      </c>
+      <c r="X18" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>589</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>632</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>15</v>
+      </c>
+      <c r="AV18">
+        <v>100</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>663</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
+      <c r="A19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19">
+        <v>71</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="P19" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>487</v>
+      </c>
+      <c r="R19" t="s">
+        <v>489</v>
+      </c>
+      <c r="S19" t="s">
         <v>490</v>
-      </c>
-      <c r="X18" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>536</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>540</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>568</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>590</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>599</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>611</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>15</v>
-      </c>
-      <c r="AW18">
-        <v>100</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>620</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59">
-      <c r="A19">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" t="s">
-        <v>431</v>
-      </c>
-      <c r="J19" t="s">
-        <v>453</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>455</v>
-      </c>
-      <c r="P19" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>462</v>
-      </c>
-      <c r="R19" t="s">
-        <v>463</v>
-      </c>
-      <c r="S19" t="s">
-        <v>464</v>
       </c>
       <c r="T19" t="s">
         <v>259</v>
       </c>
       <c r="U19" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="V19" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="W19" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="X19" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="Y19" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z19" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>477</v>
       </c>
       <c r="AE19" t="s">
-        <v>420</v>
+        <v>553</v>
       </c>
       <c r="AF19" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
-      <c r="AK19">
-        <v>0</v>
+      <c r="AK19" t="s">
+        <v>428</v>
       </c>
       <c r="AL19" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>576</v>
       </c>
       <c r="AO19" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="AP19" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="AQ19" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="AR19" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS19" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>612</v>
+        <v>633</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV19">
-        <v>5</v>
-      </c>
-      <c r="AW19">
         <v>100</v>
       </c>
+      <c r="AW19" t="s">
+        <v>637</v>
+      </c>
       <c r="AX19" t="b">
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC19" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="BD19">
         <v>1</v>
       </c>
       <c r="BG19" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:59">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>300</v>
       </c>
-      <c r="F20" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" t="s">
-        <v>445</v>
-      </c>
-      <c r="J20" t="s">
-        <v>453</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>455</v>
-      </c>
       <c r="P20" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="Q20" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="R20" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S20" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T20" t="s">
         <v>259</v>
       </c>
       <c r="U20" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="V20" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="W20" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="X20" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="Y20" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z20" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>478</v>
       </c>
       <c r="AE20" t="s">
-        <v>421</v>
+        <v>553</v>
       </c>
       <c r="AF20" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
+      <c r="AK20" t="s">
+        <v>429</v>
       </c>
       <c r="AL20" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>576</v>
       </c>
       <c r="AO20" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="AP20" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="AQ20" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="AR20" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS20" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>612</v>
+        <v>633</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV20">
-        <v>5</v>
-      </c>
-      <c r="AW20">
         <v>100</v>
       </c>
+      <c r="AW20" t="s">
+        <v>651</v>
+      </c>
       <c r="AX20" t="b">
         <v>0</v>
       </c>
       <c r="BB20" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC20" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="BD20">
         <v>1</v>
       </c>
       <c r="BG20" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:59">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>900</v>
       </c>
-      <c r="F21" t="s">
-        <v>422</v>
-      </c>
-      <c r="G21" t="s">
-        <v>431</v>
-      </c>
-      <c r="J21" t="s">
-        <v>453</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>456</v>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="Q21" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R21" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S21" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T21" t="s">
         <v>259</v>
       </c>
       <c r="U21" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="V21" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="W21" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="X21" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="Y21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z21" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>479</v>
       </c>
       <c r="AE21" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="AF21" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>536</v>
+        <v>557</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>1</v>
+      <c r="AK21" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>576</v>
       </c>
       <c r="AO21" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>571</v>
+        <v>592</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>620</v>
       </c>
       <c r="AR21" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="AS21" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>613</v>
+        <v>634</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV21">
-        <v>15</v>
-      </c>
-      <c r="AW21">
         <v>100</v>
       </c>
+      <c r="AW21" t="s">
+        <v>637</v>
+      </c>
       <c r="AX21" t="b">
         <v>0</v>
       </c>
       <c r="BB21" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC21" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="BG21" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:59">
-      <c r="A22">
+      <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>456</v>
+      </c>
+      <c r="M22">
         <v>86400</v>
       </c>
-      <c r="F22" t="s">
-        <v>423</v>
-      </c>
-      <c r="G22" t="s">
-        <v>432</v>
-      </c>
-      <c r="J22" t="s">
-        <v>453</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>456</v>
-      </c>
       <c r="P22" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R22" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S22" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T22" t="s">
         <v>259</v>
       </c>
       <c r="U22" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="V22" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="W22" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="X22" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
       <c r="Y22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z22" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>480</v>
       </c>
       <c r="AE22" t="s">
-        <v>423</v>
+        <v>553</v>
       </c>
       <c r="AF22" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>399</v>
+        <v>557</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AK22">
-        <v>0</v>
+      <c r="AK22" t="s">
+        <v>431</v>
       </c>
       <c r="AL22" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>546</v>
-      </c>
-      <c r="AN22" t="b">
-        <v>1</v>
+        <v>567</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>576</v>
       </c>
       <c r="AO22" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="AP22" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="AQ22" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="AR22" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="AS22" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>606</v>
+        <v>627</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
         <v>100</v>
       </c>
+      <c r="AW22" t="s">
+        <v>638</v>
+      </c>
       <c r="AX22" t="b">
         <v>0</v>
       </c>
       <c r="BB22" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BC22" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="BG22" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:59">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E23" t="s">
+        <v>447</v>
+      </c>
+      <c r="F23">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
-        <v>389</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>400</v>
-      </c>
-      <c r="E23">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>457</v>
+      </c>
+      <c r="M23">
         <v>300</v>
       </c>
-      <c r="F23" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" t="s">
-        <v>446</v>
-      </c>
-      <c r="J23" t="s">
-        <v>453</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>454</v>
-      </c>
       <c r="P23" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="Q23" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R23" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S23" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T23" t="s">
         <v>259</v>
       </c>
       <c r="U23" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="V23" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="W23" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="X23" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="Y23" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="Z23" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>481</v>
       </c>
       <c r="AE23" t="s">
-        <v>424</v>
+        <v>555</v>
       </c>
       <c r="AF23" t="s">
-        <v>534</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>400</v>
+        <v>557</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>457</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>0</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
+      <c r="AK23" t="s">
+        <v>432</v>
       </c>
       <c r="AL23" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>550</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>1</v>
+        <v>571</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>139</v>
       </c>
       <c r="AO23" t="s">
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="AP23" t="s">
-        <v>424</v>
+        <v>615</v>
       </c>
       <c r="AQ23" t="s">
-        <v>594</v>
+        <v>447</v>
       </c>
       <c r="AR23" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS23" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV23">
-        <v>5</v>
-      </c>
-      <c r="AW23">
         <v>25</v>
       </c>
+      <c r="AW23" t="s">
+        <v>652</v>
+      </c>
       <c r="AX23" t="b">
         <v>0</v>
       </c>
       <c r="AY23" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="BB23" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="BC23" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="BG23" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:59">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>401</v>
-      </c>
-      <c r="E24">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>458</v>
+      </c>
+      <c r="M24">
         <v>300</v>
       </c>
-      <c r="F24" t="s">
-        <v>425</v>
-      </c>
-      <c r="G24" t="s">
-        <v>447</v>
-      </c>
-      <c r="J24" t="s">
-        <v>453</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>454</v>
-      </c>
       <c r="P24" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="Q24" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R24" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S24" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T24" t="s">
         <v>259</v>
       </c>
       <c r="U24" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="V24" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="W24" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="X24" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="Y24" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="Z24" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>482</v>
       </c>
       <c r="AE24" t="s">
-        <v>425</v>
+        <v>555</v>
       </c>
       <c r="AF24" t="s">
-        <v>534</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>401</v>
+        <v>557</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
       <c r="AJ24">
         <v>0</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
+      <c r="AK24" t="s">
+        <v>433</v>
       </c>
       <c r="AL24" t="s">
-        <v>390</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>551</v>
-      </c>
-      <c r="AN24" t="b">
-        <v>1</v>
+        <v>572</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>139</v>
       </c>
       <c r="AO24" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="AP24" t="s">
-        <v>425</v>
+        <v>616</v>
       </c>
       <c r="AQ24" t="s">
-        <v>595</v>
+        <v>447</v>
       </c>
       <c r="AR24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS24" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV24">
-        <v>5</v>
-      </c>
-      <c r="AW24">
         <v>25</v>
       </c>
+      <c r="AW24" t="s">
+        <v>653</v>
+      </c>
       <c r="AX24" t="b">
         <v>0</v>
       </c>
       <c r="AY24" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="BB24" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="BC24" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="BG24" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:59">
-      <c r="A25">
+      <c r="A25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>459</v>
+      </c>
+      <c r="M25">
         <v>300</v>
       </c>
-      <c r="F25" t="s">
-        <v>426</v>
-      </c>
-      <c r="G25" t="s">
-        <v>448</v>
-      </c>
-      <c r="J25" t="s">
-        <v>453</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>454</v>
-      </c>
       <c r="P25" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R25" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S25" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T25" t="s">
         <v>259</v>
       </c>
       <c r="U25" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="V25" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="W25" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="X25" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="Y25" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="Z25" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>483</v>
       </c>
       <c r="AE25" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="AF25" t="s">
-        <v>534</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>402</v>
+        <v>557</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
+      <c r="AK25" t="s">
+        <v>434</v>
       </c>
       <c r="AL25" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>552</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>1</v>
+        <v>573</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>139</v>
       </c>
       <c r="AO25" t="s">
-        <v>139</v>
+        <v>594</v>
       </c>
       <c r="AP25" t="s">
-        <v>573</v>
+        <v>617</v>
       </c>
       <c r="AQ25" t="s">
-        <v>596</v>
+        <v>447</v>
       </c>
       <c r="AR25" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS25" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV25">
-        <v>5</v>
-      </c>
-      <c r="AW25">
         <v>25</v>
       </c>
+      <c r="AW25" t="s">
+        <v>654</v>
+      </c>
       <c r="AX25" t="b">
         <v>0</v>
       </c>
       <c r="AY25" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="BB25" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="BC25" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="BG25" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:59">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26">
         <v>99</v>
       </c>
-      <c r="B26" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>403</v>
-      </c>
-      <c r="E26">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>460</v>
+      </c>
+      <c r="M26">
         <v>300</v>
       </c>
-      <c r="F26" t="s">
-        <v>427</v>
-      </c>
-      <c r="G26" t="s">
-        <v>449</v>
-      </c>
-      <c r="J26" t="s">
-        <v>453</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>454</v>
-      </c>
       <c r="P26" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="Q26" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="R26" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S26" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="T26" t="s">
         <v>259</v>
       </c>
       <c r="U26" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="V26" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="W26" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="X26" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="Y26" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="Z26" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="b">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>484</v>
       </c>
       <c r="AE26" t="s">
-        <v>427</v>
+        <v>555</v>
       </c>
       <c r="AF26" t="s">
-        <v>534</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>403</v>
+        <v>557</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>0</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
+      <c r="AK26" t="s">
+        <v>435</v>
       </c>
       <c r="AL26" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>553</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>1</v>
+        <v>574</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>139</v>
       </c>
       <c r="AO26" t="s">
-        <v>139</v>
+        <v>595</v>
       </c>
       <c r="AP26" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="AQ26" t="s">
-        <v>597</v>
+        <v>447</v>
       </c>
       <c r="AR26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AS26" t="s">
-        <v>453</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV26">
-        <v>5</v>
-      </c>
-      <c r="AW26">
         <v>25</v>
       </c>
+      <c r="AW26" t="s">
+        <v>655</v>
+      </c>
       <c r="AX26" t="b">
         <v>0</v>
       </c>
       <c r="AY26" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="BB26" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="BC26" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="BG26" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:59">
-      <c r="A27">
+      <c r="A27" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" t="s">
+        <v>447</v>
+      </c>
+      <c r="F27">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E27">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>461</v>
+      </c>
+      <c r="M27">
         <v>3600</v>
       </c>
-      <c r="F27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G27" t="s">
-        <v>450</v>
-      </c>
-      <c r="J27" t="s">
-        <v>453</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>456</v>
-      </c>
       <c r="P27" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="Q27" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="R27" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="S27" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="T27">
         <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="V27" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="W27" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="X27" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="Y27" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Z27" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="b">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>485</v>
       </c>
       <c r="AE27" t="s">
-        <v>428</v>
+        <v>556</v>
       </c>
       <c r="AF27" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>404</v>
+        <v>557</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>1</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>436</v>
       </c>
       <c r="AL27" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>554</v>
-      </c>
-      <c r="AN27" t="b">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>576</v>
       </c>
       <c r="AO27" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="AP27" t="s">
+        <v>619</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>623</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS27" t="s">
         <v>575</v>
       </c>
-      <c r="AQ27" t="s">
-        <v>598</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>602</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>599</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>554</v>
+      <c r="AT27">
+        <v>0</v>
       </c>
       <c r="AU27">
         <v>0</v>
       </c>
       <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
         <v>100</v>
       </c>
+      <c r="AW27" t="s">
+        <v>656</v>
+      </c>
       <c r="AX27" t="b">
         <v>0</v>
       </c>
       <c r="BB27" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="BD27">
         <v>5</v>
       </c>
       <c r="BG27" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/lp_tenant_exporter_v2/split/tenants/moi_config.xlsx
+++ b/lp_tenant_exporter_v2/split/tenants/moi_config.xlsx
@@ -1096,6 +1096,9 @@
     <t>{"allowed_all": false, "permitted": [{"logpoint_name": "siem-backend", "logpoint_ip": "127.0.0.1", "device_groups": [{"all": true, "name": "windows", "devices": [{"ips": ["10.93.8.26"], "all": true, "name": "core-ojs"}, {"ips": ["10.93.8.27"], "all": true, "name": "core-tajs"}, {"ips": ["10.93.11.11"], "all": true, "name": "core-ijs"}, {"ips": ["10.93.9.31"], "all": true, "name": "sccoe-csoc-rfsa-rf-cas"}, {"ips": ["10.93.8.247"], "all": true, "name": "TEMP-QR-SCCOE-Victim"}, {"ips": ["10.44.36.9"], "all": true, "name": "TEMP-QR-MOI-Victim"}, {"ips": ["10.93.11.10"], "all": true, "name": "core-vs1-p001esadc"}, {"ips": ["10.44.35.10"], "all": true, "name": "core-vs2-p001esadc"}, {"ips": ["10.93.8.243"], "all": true, "name": "sccoe-ar-victim"}, {"ips": ["10.44.36.12"], "all": true, "name": "moi-ar-victim"}]}, {"all": true, "name": "linux", "devices": [{"ips": ["127.0.0.1", "::1"], "all": true, "name": "localhost"}, {"ips": ["10.93.8.246"], "all": true, "name": "sccoe-TenantLogGen"}, {"ips": ["10.93.9.32"], "all": true, "name": "core-tenable.sc"}, {"ips": ["10.93.9.245"], "all": true, "name": "core-edr-log"}, {"ips": ["10.44.36.5"], "all": true, "name": "moi-sanm"}, {"ips": ["10.32.3.10"], "all": true, "name": "esrin-linux01"}, {"ips": ["10.93.9.34"], "all": true, "name": "core-deception-acm"}, {"ips": ["10.44.36.11"], "all": true, "name": "moi-TenantLogGen"}, {"ips": ["10.28.9.131"], "all": true, "name": "esait-TenantLogGen"}, {"ips": ["10.48.3.10"], "all": true, "name": "esrin-dhcp01"}, {"ips": ["10.17.20.202"], "all": true, "name": "esrin-forum01"}, {"ips": ["10.182.17.56"], "all": true, "name": "esrin-linux02"}, {"ips": ["10.182.17.146"], "all": true, "name": "esrin-linux03"}, {"ips": ["10.17.8.20"], "all": true, "name": "esrin-linux04"}, {"ips": ["10.17.8.11"], "all": true, "name": "esrin-linux05"}, {"ips": ["10.32.63.49"], "all": true, "name": "esrin-linux06"}, {"ips": ["10.182.17.48"], "all": true, "name": "esrin-linux07"}, {"ips": ["10.182.17.54"], "all": true, "name": "esrin-linux08"}, {"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}, {"ips": ["10.93.8.241"], "all": true, "name": "sccoe-TenantLogGen2"}, {"ips": ["10.28.9.132"], "all": true, "name": "esait-TenantLogGen2"}, {"ips": ["10.181.238.68"], "all": true, "name": "tia-TenantLogGen"}]}, {"all": true, "name": "firewall", "devices": [{"ips": ["10.93.10.254"], "all": true, "name": "core-csoc-prod-esec-pri-fw1"}, {"ips": ["172.18.11.218"], "all": true, "name": "esrin-palo-fw02"}, {"ips": ["172.18.11.216"], "all": true, "name": "esrin-palo-fw01"}, {"ips": ["10.21.95.33"], "all": true, "name": "esrin-cisco-firepower02"}, {"ips": ["10.181.95.33"], "all": true, "name": "esrin-cisco-firepower01"}, {"ips": ["172.18.11.217"], "all": true, "name": "esrin-palo-fw03"}, {"ips": ["172.18.11.219"], "all": true, "name": "esrin-palo-fw04"}, {"ips": ["10.21.67.1"], "all": true, "name": "esrin-checkpoint-fw01"}, {"ips": ["10.22.5.1"], "all": true, "name": "esrin-checkpoint-fw02"}]}, {"all": true, "name": "others", "devices": [{"ips": ["10.93.8.252"], "all": true, "name": "sccoe-sanm"}, {"ips": ["10.113.5.121"], "all": true, "name": "esrin-sharepoint"}, {"ips": ["10.32.12.29"], "all": true, "name": "esrin-cisco-asa01"}, {"ips": ["10.32.12.30"], "all": true, "name": "esrin-cisco-asa02"}, {"ips": ["10.17.12.186"], "all": true, "name": "esrin-pwexilbl01"}, {"ips": ["10.17.14.111"], "all": true, "name": "esrin-pwexilbl02"}, {"ips": ["10.17.14.163"], "all": true, "name": "esrin-pwexilbl03"}, {"ips": ["10.182.17.35"], "all": true, "name": "esrin-pdepilb01"}]}, {"all": true, "name": "wireless", "devices": [{"ips": ["10.101.9.194"], "all": true, "name": "esrin-cisco-wism03"}, {"ips": ["10.16.2.191"], "all": true, "name": "esrin-cisco-wism04"}, {"ips": ["10.16.2.194"], "all": true, "name": "esrin-cisco-wism05"}, {"ips": ["10.66.0.191"], "all": true, "name": "esrin-cisco-wism07"}, {"ips": ["10.66.0.194"], "all": true, "name": "esrin-cisco-wism08"}, {"ips": ["172.16.32.198"], "all": true, "name": "esrin-cisco-wism10"}, {"ips": ["172.16.32.199"], "all": true, "name": "esrin-cisco-wism11"}, {"ips": ["10.32.6.191"], "all": true, "name": "esrin-cisco-wism06"}, {"ips": ["10.82.7.191"], "all": true, "name": "esrin-cisco-wism09"}, {"ips": ["10.101.9.191"], "all": true, "name": "esrin-cisco-wism01"}, {"ips": ["10.101.9.192"], "all": true, "name": "esrin-cisco-wism02"}, {"ips": ["10.250.250.161"], "all": true, "name": "esrin-cisco-wism12"}, {"ips": ["10.250.250.191"], "all": true, "name": "esrin-cisco-wism13"}, {"ips": ["10.250.250.194"], "all": true, "name": "esrin-cisco-wism14"}, {"ips": ["10.32.6.194"], "all": true, "name": "esrin-cisco-wism15"}, {"ips": ["10.48.2.191"], "all": true, "name": "esrin-cisco-wism16"}, {"ips": ["10.48.2.194"], "all": true, "name": "esrin-cisco-wism17"}, {"ips": ["10.66.0.192"], "all": true, "name": "esrin-cisco-wism18"}, {"ips": ["10.82.7.192"], "all": true, "name": "esrin-cisco-wism19"}]}, {"all": true, "name": "identity", "devices": [{"ips": ["10.21.75.30"], "all": true, "name": "esrin-iam01"}, {"ips": ["10.21.75.21"], "all": true, "name": "esrin-iam02"}, {"ips": ["10.21.75.18"], "all": true, "name": "esrin-igidb01"}, {"ips": ["10.21.75.5"], "all": true, "name": "esrin-igidb-acc01"}, {"ips": ["10.21.75.17"], "all": true, "name": "esrin-igildap01"}, {"ips": ["10.21.75.6"], "all": true, "name": "esrin-igildap-acc01"}]}, {"all": true, "name": "LTM", "devices": [{"ips": ["10.113.5.60"], "all": true, "name": "esrin-f5-ltm01"}, {"ips": ["10.113.5.62"], "all": true, "name": "esrin-f5-ltm02"}]}, {"all": true, "name": "VPN", "devices": []}, {"all": true, "name": "PAM", "devices": [{"ips": ["10.28.2.10"], "all": true, "name": "esrin-beyondtrust-pam01"}, {"ips": ["10.28.2.11"], "all": true, "name": "esrin-beyondtrust-pam02"}, {"ips": ["10.28.2.12"], "all": true, "name": "esrin-beyondtrust-pam03"}, {"ips": ["10.28.2.9"], "all": true, "name": "esrin-beyondtrust-pam04"}]}, {"all": true, "name": "oracle", "devices": [{"ips": ["10.17.20.7"], "all": true, "name": "esrin-oracle-ssp01"}, {"ips": ["10.17.20.33"], "all": true, "name": "esrin-oracle-ssp02"}]}, {"all": true, "name": "log_proxy", "devices": [{"ips": ["10.21.58.7"], "all": true, "name": "esait-log-proxy1"}, {"ips": ["10.99.89.43"], "all": true, "name": "moi-log-proxy1"}, {"ips": ["10.99.40.26"], "all": true, "name": "moi-log-proxy2"}, {"ips": ["10.21.58.8"], "all": true, "name": "esait-log-proxy2"}, {"ips": ["10.21.58.11"], "all": true, "name": "esait-log-proxy3"}]}, {"all": true, "name": "RSA", "devices": [{"ips": ["10.93.11.14"], "all": true, "name": "core-vs1-p001esarsam"}, {"ips": ["10.44.35.14"], "all": true, "name": "core-vs2-p001esarsam"}]}, {"all": true, "name": "Ungrouped", "devices": []}], "repos": [{"name": "default"}, {"name": "_logpoint"}, {"name": "_LogPointAlerts"}, {"name": "Repo-core-system"}, {"name": "Repo-core-system-verbose"}, {"name": "Repo-core-secu"}, {"name": "Repo-core-secu-verbose"}, {"name": "Repo-core-system-expert"}, {"name": "Repo-core-cloud"}, {"name": "Repo-moi-system"}, {"name": "Repo-moi-system-verbose"}, {"name": "Repo-moi-secu"}, {"name": "Repo-moi-secu-verbose"}, {"name": "Repo-moi-system-expert"}, {"name": "Repo-moi-cloud"}, {"name": "Repo-esait-system"}, {"name": "Repo-esait-secu"}, {"name": "Repo-esait-secu-verbose"}, {"name": "Repo-sccoe-cloud"}, {"name": "Repo-sccoe-secu"}, {"name": "Repo-sccoe-secu-verbose"}, {"name": "Repo-sccoe-system"}, {"name": "Repo-sccoe-system-expert"}, {"name": "Repo-sccoe-system-verbose"}, {"name": "Repo-esait-system-verbose"}, {"name": "Repo-tia-system"}, {"name": "Repo-tia-system-verbose"}, {"name": "Repo-tia-secu"}, {"name": "Repo-tia-secu-verbose"}], "allDeviceGroups": true, "allRepos": true}]}</t>
   </si>
   <si>
+    <t>settings.repos</t>
+  </si>
+  <si>
     <t>settings.user</t>
   </si>
   <si>
@@ -1237,9 +1240,6 @@
     <t>settings.livesearch_data.limit</t>
   </si>
   <si>
-    <t>settings.repos</t>
-  </si>
-  <si>
     <t>settings.throttling_enabled</t>
   </si>
   <si>
@@ -1343,6 +1343,72 @@
   </si>
   <si>
     <t>LOGPOINT - HEALTHCHECK - Logs AD manquants</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-cloud"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system"]</t>
+  </si>
+  <si>
+    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "127.0.0.1:5504/Repo-sccoe-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "127.0.0.1:5504/Repo-sccoe-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "127.0.0.1:5504/Repo-sccoe-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "127.0.0.1:5504/Repo-moi-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-expert"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-verbose"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "127.0.0.1:5504/Repo-tia-secu"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud"]</t>
+  </si>
+  <si>
+    <t>["10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
   </si>
   <si>
     <t>etudes</t>
@@ -1942,72 +2008,6 @@
   </si>
   <si>
     <t>["time", "src_user", "src_adr", "src_host", "evt", "message", "dst_user"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-cloud"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system"]</t>
-  </si>
-  <si>
-    <t>["127.0.0.1:5504", "10.109.234.1:5504"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "127.0.0.1:5504/Repo-sccoe-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "127.0.0.1:5504/Repo-sccoe-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "127.0.0.1:5504/Repo-sccoe-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "127.0.0.1:5504/Repo-moi-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-core-secu-verbose", "10.109.234.1:5504/Repo-core-system", "10.109.234.1:5504/Repo-core-system-expert", "10.109.234.1:5504/Repo-core-system-verbose", "10.109.234.1:5504/Repo-esait-secu", "10.109.234.1:5504/Repo-esait-secu-verbose", "10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud", "10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "127.0.0.1:5504/Repo-moi-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "10.109.234.1:5504/Repo-tia-secu", "10.109.234.1:5504/Repo-tia-secu-verbose", "10.109.234.1:5504/Repo-tia-system", "127.0.0.1:5504/Repo-tia-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-expert"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-verbose"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud", "10.109.234.1:5504/Repo-sccoe-secu", "10.109.234.1:5504/Repo-sccoe-secu-verbose", "10.109.234.1:5504/Repo-sccoe-system", "10.109.234.1:5504/Repo-sccoe-system-expert", "10.109.234.1:5504/Repo-sccoe-system-verbose", "127.0.0.1:5504/Repo-tia-secu"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system", "10.109.234.1:5504/Repo-moi-system-expert"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-esait-system", "10.109.234.1:5504/Repo-esait-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-secu", "10.109.234.1:5504/Repo-moi-secu-verbose", "10.109.234.1:5504/Repo-moi-system"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-expert", "10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-sccoe-cloud"]</t>
-  </si>
-  <si>
-    <t>["10.109.234.1:5504/Repo-moi-system-verbose", "10.109.234.1:5504/Repo-moi-cloud"]</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;style type="text/css"&gt;
@@ -3611,118 +3611,118 @@
         <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F2">
+        <v>469</v>
+      </c>
+      <c r="F2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>300</v>
       </c>
-      <c r="P2" t="s">
-        <v>462</v>
-      </c>
       <c r="Q2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="R2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S2" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T2" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="U2" t="s">
+        <v>516</v>
+      </c>
+      <c r="V2" t="s">
         <v>412</v>
       </c>
-      <c r="V2" t="s">
-        <v>447</v>
-      </c>
       <c r="W2" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="X2" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="Y2" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>462</v>
+        <v>469</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="AF2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>579</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
         <v>412</v>
       </c>
-      <c r="AL2" t="s">
-        <v>558</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>576</v>
+      <c r="AM2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="AP2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AQ2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AR2" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS2" t="s">
-        <v>624</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>646</v>
       </c>
       <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>5</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>100</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>635</v>
       </c>
       <c r="BG2" t="s">
         <v>672</v>
@@ -3736,121 +3736,121 @@
         <v>438</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3">
+        <v>469</v>
+      </c>
+      <c r="F3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3">
         <v>14</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>7200</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>463</v>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="R3" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S3" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T3" t="s">
+        <v>512</v>
+      </c>
+      <c r="U3" t="s">
         <v>259</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>413</v>
       </c>
-      <c r="V3" t="s">
-        <v>496</v>
-      </c>
       <c r="W3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X3" t="s">
-        <v>447</v>
+        <v>544</v>
       </c>
       <c r="Y3" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>463</v>
+        <v>469</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="AF3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI3">
+        <v>575</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ3">
         <v>2</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
         <v>413</v>
       </c>
-      <c r="AL3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>576</v>
+      <c r="AM3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="AP3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AQ3" t="s">
         <v>620</v>
       </c>
       <c r="AR3" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS3" t="s">
-        <v>625</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>647</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>100</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>636</v>
       </c>
       <c r="AX3" t="b">
         <v>0</v>
@@ -3870,124 +3870,124 @@
         <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4">
+        <v>469</v>
+      </c>
+      <c r="F4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4">
         <v>17</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>7200</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>464</v>
+      <c r="O4">
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="R4" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S4" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T4" t="s">
+        <v>512</v>
+      </c>
+      <c r="U4" t="s">
         <v>259</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>414</v>
       </c>
-      <c r="V4" t="s">
-        <v>497</v>
-      </c>
       <c r="W4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X4" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
       <c r="Y4" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>464</v>
+        <v>469</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="AF4" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI4">
+        <v>575</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ4">
         <v>2</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
         <v>414</v>
       </c>
-      <c r="AL4" t="s">
-        <v>560</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>576</v>
+      <c r="AM4" t="s">
+        <v>582</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="AP4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AQ4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AR4" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS4" t="s">
-        <v>626</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>648</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>100</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>637</v>
       </c>
       <c r="AX4" t="b">
         <v>0</v>
@@ -4001,130 +4001,130 @@
         <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5">
+        <v>469</v>
+      </c>
+      <c r="F5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5">
         <v>19</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>451</v>
-      </c>
-      <c r="M5">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>473</v>
+      </c>
+      <c r="N5">
         <v>86400</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>465</v>
+      <c r="O5">
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R5" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S5" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T5" t="s">
+        <v>512</v>
+      </c>
+      <c r="U5" t="s">
         <v>259</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>415</v>
       </c>
-      <c r="V5" t="s">
-        <v>498</v>
-      </c>
       <c r="W5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="X5" t="s">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="Y5" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z5" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>465</v>
+        <v>469</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="AF5" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>451</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>473</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
         <v>415</v>
       </c>
-      <c r="AL5" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>576</v>
+      <c r="AM5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
       </c>
       <c r="AO5" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="AP5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AQ5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AR5" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="AS5" t="s">
-        <v>627</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>649</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>100</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>638</v>
       </c>
       <c r="AX5" t="b">
         <v>0</v>
@@ -4144,124 +4144,124 @@
         <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F6">
+        <v>469</v>
+      </c>
+      <c r="F6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6">
         <v>21</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>3600</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>466</v>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R6" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S6" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="T6" t="s">
+        <v>513</v>
+      </c>
+      <c r="U6" t="s">
         <v>259</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>416</v>
       </c>
-      <c r="V6" t="s">
-        <v>499</v>
-      </c>
       <c r="W6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="X6" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
       <c r="Y6" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="AF6" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
+        <v>576</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>579</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>416</v>
       </c>
-      <c r="AL6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>576</v>
+      <c r="AM6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
       </c>
       <c r="AO6" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="AP6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AQ6" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AR6" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>584</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>100</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>639</v>
       </c>
       <c r="AX6" t="b">
         <v>0</v>
@@ -4278,124 +4278,124 @@
         <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7">
+        <v>469</v>
+      </c>
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7">
         <v>24</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
       <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>3600</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>467</v>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R7" t="s">
+        <v>510</v>
+      </c>
+      <c r="S7" t="s">
+        <v>511</v>
+      </c>
+      <c r="T7" t="s">
+        <v>512</v>
+      </c>
+      <c r="U7" t="s">
+        <v>259</v>
+      </c>
+      <c r="V7" t="s">
+        <v>417</v>
+      </c>
+      <c r="W7" t="s">
+        <v>522</v>
+      </c>
+      <c r="X7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
         <v>489</v>
       </c>
-      <c r="S7" t="s">
-        <v>490</v>
-      </c>
-      <c r="T7" t="s">
-        <v>259</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="AF7" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
         <v>417</v>
       </c>
-      <c r="V7" t="s">
-        <v>500</v>
-      </c>
-      <c r="W7" t="s">
-        <v>526</v>
-      </c>
-      <c r="X7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>563</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>576</v>
+      <c r="AM7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="AP7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AQ7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AR7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS7" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>650</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>100</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>640</v>
       </c>
       <c r="AX7" t="b">
         <v>0</v>
@@ -4412,118 +4412,118 @@
         <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8">
+        <v>469</v>
+      </c>
+      <c r="F8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+      <c r="I8" t="s">
+        <v>471</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>452</v>
-      </c>
-      <c r="M8">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>474</v>
+      </c>
+      <c r="N8">
         <v>300</v>
       </c>
-      <c r="P8" t="s">
-        <v>468</v>
-      </c>
       <c r="Q8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="R8" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S8" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="T8" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="U8" t="s">
+        <v>517</v>
+      </c>
+      <c r="V8" t="s">
         <v>418</v>
       </c>
-      <c r="V8" t="s">
-        <v>501</v>
-      </c>
       <c r="W8" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="X8" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>474</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
         <v>418</v>
       </c>
-      <c r="AL8" t="s">
-        <v>564</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="s">
+      <c r="AM8" t="s">
+        <v>586</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
         <v>139</v>
       </c>
-      <c r="AO8" t="s">
-        <v>468</v>
-      </c>
       <c r="AP8" t="s">
-        <v>603</v>
+        <v>490</v>
       </c>
       <c r="AQ8" t="s">
-        <v>447</v>
+        <v>625</v>
       </c>
       <c r="AR8" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS8" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>469</v>
       </c>
       <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>5</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>25</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>641</v>
       </c>
       <c r="AX8" t="b">
         <v>0</v>
@@ -4540,130 +4540,130 @@
         <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9">
+        <v>469</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>450</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>472</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>453</v>
-      </c>
-      <c r="M9">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>475</v>
+      </c>
+      <c r="N9">
         <v>300</v>
       </c>
-      <c r="P9" t="s">
-        <v>469</v>
-      </c>
       <c r="Q9" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="R9" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S9" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T9" t="s">
+        <v>512</v>
+      </c>
+      <c r="U9" t="s">
         <v>259</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>419</v>
       </c>
-      <c r="V9" t="s">
-        <v>502</v>
-      </c>
       <c r="W9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X9" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="Y9" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z9" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>469</v>
+        <v>469</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="AF9" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>453</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>475</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>419</v>
       </c>
-      <c r="AL9" t="s">
-        <v>565</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>576</v>
+      <c r="AM9" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
       </c>
       <c r="AO9" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="AP9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AQ9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AR9" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="AS9" t="s">
-        <v>629</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>651</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
         <v>5</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>100</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>642</v>
       </c>
       <c r="AX9" t="b">
         <v>0</v>
@@ -4683,124 +4683,124 @@
         <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10">
+        <v>470</v>
+      </c>
+      <c r="F10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G10">
         <v>34</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>7200</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>470</v>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="R10" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S10" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T10" t="s">
+        <v>512</v>
+      </c>
+      <c r="U10" t="s">
         <v>259</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>420</v>
       </c>
-      <c r="V10" t="s">
-        <v>503</v>
-      </c>
       <c r="W10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="X10" t="s">
-        <v>447</v>
+        <v>551</v>
       </c>
       <c r="Y10" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z10" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="AF10" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI10">
+        <v>575</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ10">
         <v>2</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
         <v>420</v>
       </c>
-      <c r="AL10" t="s">
-        <v>559</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>576</v>
+      <c r="AM10" t="s">
+        <v>581</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="AP10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AQ10" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="AR10" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS10" t="s">
-        <v>630</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>652</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>100</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>643</v>
       </c>
       <c r="AX10" t="b">
         <v>0</v>
@@ -4820,124 +4820,124 @@
         <v>421</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11">
+        <v>470</v>
+      </c>
+      <c r="F11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11">
         <v>35</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>86400</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>471</v>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="R11" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S11" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T11" t="s">
+        <v>512</v>
+      </c>
+      <c r="U11" t="s">
         <v>259</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>421</v>
       </c>
-      <c r="V11" t="s">
-        <v>504</v>
-      </c>
       <c r="W11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="X11" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="Y11" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="AF11" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>579</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
         <v>421</v>
       </c>
-      <c r="AL11" t="s">
-        <v>566</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>576</v>
+      <c r="AM11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
       </c>
       <c r="AO11" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AP11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AQ11" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AR11" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS11" t="s">
-        <v>631</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>653</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>100</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>644</v>
       </c>
       <c r="AX11" t="b">
         <v>0</v>
@@ -4954,124 +4954,124 @@
         <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12">
+        <v>470</v>
+      </c>
+      <c r="F12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12">
         <v>39</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>86400</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>471</v>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="R12" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S12" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T12" t="s">
+        <v>512</v>
+      </c>
+      <c r="U12" t="s">
         <v>259</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>422</v>
       </c>
-      <c r="V12" t="s">
-        <v>505</v>
-      </c>
       <c r="W12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X12" t="s">
-        <v>447</v>
+        <v>553</v>
       </c>
       <c r="Y12" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z12" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>471</v>
+        <v>469</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="AF12" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>579</v>
       </c>
       <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
         <v>422</v>
       </c>
-      <c r="AL12" t="s">
-        <v>566</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>576</v>
+      <c r="AM12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AP12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AQ12" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AR12" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS12" t="s">
-        <v>631</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>653</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>100</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>645</v>
       </c>
       <c r="AX12" t="b">
         <v>0</v>
@@ -5088,124 +5088,124 @@
         <v>423</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13">
+        <v>470</v>
+      </c>
+      <c r="F13" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13">
         <v>43</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>3600</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>472</v>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="R13" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S13" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="T13" t="s">
+        <v>513</v>
+      </c>
+      <c r="U13" t="s">
         <v>259</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>423</v>
       </c>
-      <c r="V13" t="s">
-        <v>506</v>
-      </c>
       <c r="W13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="X13" t="s">
-        <v>447</v>
+        <v>554</v>
       </c>
       <c r="Y13" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z13" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>472</v>
+        <v>469</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="AF13" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>579</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>423</v>
       </c>
-      <c r="AL13" t="s">
-        <v>562</v>
-      </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>576</v>
+      <c r="AM13" t="s">
+        <v>584</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
       </c>
       <c r="AO13" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AP13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AQ13" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AR13" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS13" t="s">
-        <v>562</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>584</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>100</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>646</v>
       </c>
       <c r="AX13" t="b">
         <v>0</v>
@@ -5222,124 +5222,124 @@
         <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D14" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
-      </c>
-      <c r="F14">
+        <v>470</v>
+      </c>
+      <c r="F14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G14">
         <v>44</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>3600</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>466</v>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R14" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S14" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="T14" t="s">
+        <v>513</v>
+      </c>
+      <c r="U14" t="s">
         <v>259</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>416</v>
       </c>
-      <c r="V14" t="s">
-        <v>507</v>
-      </c>
       <c r="W14" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="X14" t="s">
-        <v>447</v>
+        <v>555</v>
       </c>
       <c r="Y14" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z14" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="AF14" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>579</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
         <v>416</v>
       </c>
-      <c r="AL14" t="s">
-        <v>562</v>
-      </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>576</v>
+      <c r="AM14" t="s">
+        <v>584</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
       </c>
       <c r="AO14" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="AP14" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AQ14" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AR14" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS14" t="s">
-        <v>562</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>584</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>100</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>643</v>
       </c>
       <c r="AX14" t="b">
         <v>0</v>
@@ -5356,130 +5356,130 @@
         <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15">
+        <v>470</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15">
         <v>47</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>454</v>
-      </c>
-      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>476</v>
+      </c>
+      <c r="N15">
         <v>86400</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>473</v>
+      <c r="O15">
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="R15" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S15" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T15" t="s">
+        <v>512</v>
+      </c>
+      <c r="U15" t="s">
         <v>259</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>424</v>
       </c>
-      <c r="V15" t="s">
-        <v>508</v>
-      </c>
       <c r="W15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="X15" t="s">
-        <v>447</v>
+        <v>556</v>
       </c>
       <c r="Y15" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z15" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>473</v>
+        <v>469</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="AF15" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>454</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>476</v>
       </c>
       <c r="AJ15">
         <v>0</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>424</v>
       </c>
-      <c r="AL15" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>576</v>
+      <c r="AM15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AP15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AQ15" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="AR15" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="AS15" t="s">
-        <v>627</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>649</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>100</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>647</v>
       </c>
       <c r="AX15" t="b">
         <v>0</v>
@@ -5496,124 +5496,124 @@
         <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16">
+        <v>470</v>
+      </c>
+      <c r="F16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16">
         <v>49</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>3600</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>474</v>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="R16" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S16" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T16" t="s">
+        <v>512</v>
+      </c>
+      <c r="U16" t="s">
         <v>259</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>425</v>
       </c>
-      <c r="V16" t="s">
-        <v>509</v>
-      </c>
       <c r="W16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="X16" t="s">
-        <v>447</v>
+        <v>557</v>
       </c>
       <c r="Y16" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z16" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>474</v>
+        <v>469</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="AF16" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>579</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>425</v>
       </c>
-      <c r="AL16" t="s">
-        <v>568</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="s">
+      <c r="AM16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="s">
         <v>139</v>
       </c>
-      <c r="AO16" t="s">
-        <v>474</v>
-      </c>
       <c r="AP16" t="s">
-        <v>609</v>
+        <v>496</v>
       </c>
       <c r="AQ16" t="s">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="AR16" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS16" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>469</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>25</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>648</v>
       </c>
       <c r="AX16" t="b">
         <v>0</v>
@@ -5630,127 +5630,127 @@
         <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17">
+        <v>469</v>
+      </c>
+      <c r="F17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17">
         <v>54</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
-        <v>455</v>
-      </c>
-      <c r="M17">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>477</v>
+      </c>
+      <c r="N17">
         <v>300</v>
       </c>
-      <c r="P17" t="s">
-        <v>475</v>
-      </c>
       <c r="Q17" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="R17" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S17" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T17" t="s">
+        <v>512</v>
+      </c>
+      <c r="U17" t="s">
         <v>259</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>426</v>
       </c>
-      <c r="V17" t="s">
-        <v>510</v>
-      </c>
       <c r="W17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="X17" t="s">
-        <v>447</v>
+        <v>558</v>
       </c>
       <c r="Y17" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z17" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>475</v>
+        <v>469</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="AF17" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>477</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
         <v>426</v>
       </c>
-      <c r="AL17" t="s">
-        <v>569</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>576</v>
+      <c r="AM17" t="s">
+        <v>591</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="AP17" t="s">
         <v>610</v>
       </c>
       <c r="AQ17" t="s">
-        <v>447</v>
+        <v>632</v>
       </c>
       <c r="AR17" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS17" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>469</v>
       </c>
       <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>5</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>100</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>649</v>
       </c>
       <c r="AX17" t="b">
         <v>0</v>
@@ -5770,121 +5770,121 @@
         <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>447</v>
-      </c>
-      <c r="F18">
+        <v>469</v>
+      </c>
+      <c r="F18" t="s">
+        <v>469</v>
+      </c>
+      <c r="G18">
         <v>64</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>900</v>
       </c>
-      <c r="P18" t="s">
-        <v>476</v>
-      </c>
       <c r="Q18" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="R18" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S18" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T18" t="s">
+        <v>512</v>
+      </c>
+      <c r="U18" t="s">
         <v>259</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>427</v>
       </c>
-      <c r="V18" t="s">
-        <v>511</v>
-      </c>
       <c r="W18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="X18" t="s">
-        <v>447</v>
+        <v>559</v>
       </c>
       <c r="Y18" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z18" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>476</v>
+        <v>469</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="AF18" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>579</v>
       </c>
       <c r="AJ18">
         <v>0</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
         <v>427</v>
       </c>
-      <c r="AL18" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>576</v>
+      <c r="AM18" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="AP18" t="s">
         <v>611</v>
       </c>
       <c r="AQ18" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="AR18" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS18" t="s">
-        <v>632</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>654</v>
       </c>
       <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
         <v>15</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>100</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>650</v>
       </c>
       <c r="AX18" t="b">
         <v>0</v>
@@ -5901,121 +5901,121 @@
         <v>428</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
-      </c>
-      <c r="F19">
+        <v>469</v>
+      </c>
+      <c r="F19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19">
         <v>71</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>300</v>
       </c>
-      <c r="P19" t="s">
-        <v>477</v>
-      </c>
       <c r="Q19" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="R19" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S19" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T19" t="s">
+        <v>512</v>
+      </c>
+      <c r="U19" t="s">
         <v>259</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>428</v>
       </c>
-      <c r="V19" t="s">
-        <v>512</v>
-      </c>
       <c r="W19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="X19" t="s">
-        <v>447</v>
+        <v>560</v>
       </c>
       <c r="Y19" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z19" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>477</v>
+        <v>469</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
       <c r="AF19" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>579</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
         <v>428</v>
       </c>
-      <c r="AL19" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>576</v>
+      <c r="AM19" t="s">
+        <v>592</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AP19" t="s">
         <v>612</v>
       </c>
       <c r="AQ19" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="AR19" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS19" t="s">
-        <v>633</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>655</v>
       </c>
       <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>5</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>100</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>637</v>
       </c>
       <c r="AX19" t="b">
         <v>0</v>
@@ -6038,121 +6038,121 @@
         <v>429</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
-      </c>
-      <c r="F20">
+        <v>469</v>
+      </c>
+      <c r="F20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20">
         <v>73</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>300</v>
       </c>
-      <c r="P20" t="s">
-        <v>478</v>
-      </c>
       <c r="Q20" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="R20" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S20" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T20" t="s">
+        <v>512</v>
+      </c>
+      <c r="U20" t="s">
         <v>259</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>429</v>
       </c>
-      <c r="V20" t="s">
-        <v>513</v>
-      </c>
       <c r="W20" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="X20" t="s">
-        <v>447</v>
+        <v>561</v>
       </c>
       <c r="Y20" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z20" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="AF20" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>579</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
         <v>429</v>
       </c>
-      <c r="AL20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>576</v>
+      <c r="AM20" t="s">
+        <v>592</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AP20" t="s">
         <v>613</v>
       </c>
       <c r="AQ20" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="AR20" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS20" t="s">
-        <v>633</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>655</v>
       </c>
       <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>5</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>100</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>651</v>
       </c>
       <c r="AX20" t="b">
         <v>0</v>
@@ -6175,118 +6175,118 @@
         <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E21" t="s">
-        <v>447</v>
-      </c>
-      <c r="F21">
+        <v>469</v>
+      </c>
+      <c r="F21" t="s">
+        <v>469</v>
+      </c>
+      <c r="G21">
         <v>74</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>900</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>479</v>
+      <c r="O21">
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="R21" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S21" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T21" t="s">
+        <v>512</v>
+      </c>
+      <c r="U21" t="s">
         <v>259</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>430</v>
       </c>
-      <c r="V21" t="s">
-        <v>514</v>
-      </c>
       <c r="W21" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="X21" t="s">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="Y21" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z21" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>479</v>
+        <v>469</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="AF21" t="s">
-        <v>557</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>579</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
         <v>430</v>
       </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>576</v>
+      <c r="AN21" t="b">
+        <v>1</v>
       </c>
       <c r="AO21" t="s">
-        <v>592</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>620</v>
+        <v>598</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>614</v>
       </c>
       <c r="AR21" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="AS21" t="s">
-        <v>634</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>656</v>
       </c>
       <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>15</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>100</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>637</v>
       </c>
       <c r="AX21" t="b">
         <v>0</v>
@@ -6306,127 +6306,127 @@
         <v>431</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C22" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
-      </c>
-      <c r="F22">
+        <v>469</v>
+      </c>
+      <c r="F22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22">
         <v>84</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
-        <v>456</v>
-      </c>
-      <c r="M22">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>478</v>
+      </c>
+      <c r="N22">
         <v>86400</v>
       </c>
-      <c r="P22" t="s">
-        <v>480</v>
-      </c>
       <c r="Q22" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="R22" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S22" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T22" t="s">
+        <v>512</v>
+      </c>
+      <c r="U22" t="s">
         <v>259</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>431</v>
       </c>
-      <c r="V22" t="s">
-        <v>515</v>
-      </c>
       <c r="W22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="X22" t="s">
-        <v>447</v>
+        <v>563</v>
       </c>
       <c r="Y22" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z22" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>480</v>
+        <v>469</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="AF22" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>478</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
         <v>431</v>
       </c>
-      <c r="AL22" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>576</v>
+      <c r="AM22" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
       </c>
       <c r="AO22" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AP22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AQ22" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AR22" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="AS22" t="s">
-        <v>627</v>
-      </c>
-      <c r="AT22">
-        <v>1</v>
+        <v>642</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>649</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
         <v>100</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>638</v>
       </c>
       <c r="AX22" t="b">
         <v>0</v>
@@ -6446,127 +6446,127 @@
         <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
-      </c>
-      <c r="F23">
+        <v>469</v>
+      </c>
+      <c r="F23" t="s">
+        <v>469</v>
+      </c>
+      <c r="G23">
         <v>94</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
-        <v>457</v>
-      </c>
-      <c r="M23">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>479</v>
+      </c>
+      <c r="N23">
         <v>300</v>
       </c>
-      <c r="P23" t="s">
-        <v>481</v>
-      </c>
       <c r="Q23" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="R23" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S23" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T23" t="s">
+        <v>512</v>
+      </c>
+      <c r="U23" t="s">
         <v>259</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>432</v>
       </c>
-      <c r="V23" t="s">
-        <v>516</v>
-      </c>
       <c r="W23" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="X23" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="Y23" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="Z23" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>481</v>
+        <v>572</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="AF23" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>457</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>479</v>
       </c>
       <c r="AJ23">
         <v>0</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
         <v>432</v>
       </c>
-      <c r="AL23" t="s">
-        <v>571</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="s">
+      <c r="AM23" t="s">
+        <v>593</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="s">
         <v>139</v>
       </c>
-      <c r="AO23" t="s">
-        <v>481</v>
-      </c>
       <c r="AP23" t="s">
-        <v>615</v>
+        <v>503</v>
       </c>
       <c r="AQ23" t="s">
-        <v>447</v>
+        <v>637</v>
       </c>
       <c r="AR23" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS23" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>469</v>
       </c>
       <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
         <v>5</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>25</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>652</v>
       </c>
       <c r="AX23" t="b">
         <v>0</v>
@@ -6589,127 +6589,127 @@
         <v>433</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
-      </c>
-      <c r="F24">
+        <v>469</v>
+      </c>
+      <c r="F24" t="s">
+        <v>469</v>
+      </c>
+      <c r="G24">
         <v>95</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="K24" t="s">
-        <v>458</v>
-      </c>
-      <c r="M24">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>480</v>
+      </c>
+      <c r="N24">
         <v>300</v>
       </c>
-      <c r="P24" t="s">
-        <v>482</v>
-      </c>
       <c r="Q24" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="R24" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S24" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T24" t="s">
+        <v>512</v>
+      </c>
+      <c r="U24" t="s">
         <v>259</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>433</v>
       </c>
-      <c r="V24" t="s">
-        <v>517</v>
-      </c>
       <c r="W24" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="X24" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="Y24" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="Z24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>482</v>
+        <v>573</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="AF24" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>458</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>480</v>
       </c>
       <c r="AJ24">
         <v>0</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
         <v>433</v>
       </c>
-      <c r="AL24" t="s">
-        <v>572</v>
-      </c>
-      <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="s">
+      <c r="AM24" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
         <v>139</v>
       </c>
-      <c r="AO24" t="s">
-        <v>482</v>
-      </c>
       <c r="AP24" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="AQ24" t="s">
-        <v>447</v>
+        <v>638</v>
       </c>
       <c r="AR24" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>469</v>
       </c>
       <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>5</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>25</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>653</v>
       </c>
       <c r="AX24" t="b">
         <v>0</v>
@@ -6732,127 +6732,127 @@
         <v>434</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
-      </c>
-      <c r="F25">
+        <v>469</v>
+      </c>
+      <c r="F25" t="s">
+        <v>469</v>
+      </c>
+      <c r="G25">
         <v>97</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
-        <v>459</v>
-      </c>
-      <c r="M25">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>481</v>
+      </c>
+      <c r="N25">
         <v>300</v>
       </c>
-      <c r="P25" t="s">
-        <v>483</v>
-      </c>
       <c r="Q25" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="R25" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S25" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T25" t="s">
+        <v>512</v>
+      </c>
+      <c r="U25" t="s">
         <v>259</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>434</v>
       </c>
-      <c r="V25" t="s">
-        <v>518</v>
-      </c>
       <c r="W25" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="X25" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="Y25" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="Z25" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>483</v>
+        <v>572</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="AF25" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>481</v>
       </c>
       <c r="AJ25">
         <v>0</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
         <v>434</v>
       </c>
-      <c r="AL25" t="s">
-        <v>573</v>
-      </c>
-      <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="s">
+      <c r="AM25" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
         <v>139</v>
       </c>
-      <c r="AO25" t="s">
-        <v>594</v>
-      </c>
       <c r="AP25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ25" t="s">
-        <v>447</v>
+        <v>639</v>
       </c>
       <c r="AR25" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS25" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>469</v>
       </c>
       <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>5</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>25</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>654</v>
       </c>
       <c r="AX25" t="b">
         <v>0</v>
@@ -6875,127 +6875,127 @@
         <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
-      </c>
-      <c r="F26">
+        <v>469</v>
+      </c>
+      <c r="F26" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26">
         <v>99</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
-      <c r="K26" t="s">
-        <v>460</v>
-      </c>
-      <c r="M26">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>482</v>
+      </c>
+      <c r="N26">
         <v>300</v>
       </c>
-      <c r="P26" t="s">
-        <v>484</v>
-      </c>
       <c r="Q26" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="R26" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="S26" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="T26" t="s">
+        <v>512</v>
+      </c>
+      <c r="U26" t="s">
         <v>259</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>435</v>
       </c>
-      <c r="V26" t="s">
-        <v>519</v>
-      </c>
       <c r="W26" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X26" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="Y26" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="Z26" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>484</v>
+        <v>572</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="AF26" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>460</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>482</v>
       </c>
       <c r="AJ26">
         <v>0</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
         <v>435</v>
       </c>
-      <c r="AL26" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AM26" t="s">
+        <v>596</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
         <v>139</v>
       </c>
-      <c r="AO26" t="s">
-        <v>595</v>
-      </c>
       <c r="AP26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AQ26" t="s">
-        <v>447</v>
+        <v>640</v>
       </c>
       <c r="AR26" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AS26" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>469</v>
       </c>
       <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>5</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>25</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>655</v>
       </c>
       <c r="AX26" t="b">
         <v>0</v>
@@ -7018,127 +7018,127 @@
         <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
-      </c>
-      <c r="F27">
+        <v>469</v>
+      </c>
+      <c r="F27" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27">
         <v>104</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
       <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>461</v>
-      </c>
-      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>483</v>
+      </c>
+      <c r="N27">
         <v>3600</v>
       </c>
-      <c r="P27" t="s">
-        <v>485</v>
-      </c>
       <c r="Q27" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="R27" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="S27" t="s">
-        <v>493</v>
-      </c>
-      <c r="T27">
+        <v>511</v>
+      </c>
+      <c r="T27" t="s">
+        <v>515</v>
+      </c>
+      <c r="U27">
         <v>8</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>436</v>
       </c>
-      <c r="V27" t="s">
-        <v>520</v>
-      </c>
       <c r="W27" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="X27" t="s">
-        <v>447</v>
+        <v>568</v>
       </c>
       <c r="Y27" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="Z27" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>485</v>
+        <v>469</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="AF27" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
+        <v>578</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>483</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
         <v>436</v>
       </c>
-      <c r="AL27" t="s">
-        <v>575</v>
-      </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>576</v>
+      <c r="AM27" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
       </c>
       <c r="AO27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AP27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AQ27" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="AR27" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="AS27" t="s">
-        <v>575</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>597</v>
       </c>
       <c r="AU27">
         <v>0</v>
       </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
         <v>100</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>656</v>
       </c>
       <c r="AX27" t="b">
         <v>0</v>
